--- a/水泥.excel/1109/1109(102.1~105.4)3.xlsx
+++ b/水泥.excel/1109/1109(102.1~105.4)3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,633 +115,48 @@
     <t>不動產、廠房及設備</t>
   </si>
   <si>
-    <t>4,369,216</t>
-  </si>
-  <si>
-    <t>4,388,908</t>
-  </si>
-  <si>
-    <t>4,306,890</t>
-  </si>
-  <si>
-    <t>4,336,312</t>
-  </si>
-  <si>
-    <t>4,292,902</t>
-  </si>
-  <si>
-    <t>4,226,145</t>
-  </si>
-  <si>
-    <t>4,259,576</t>
-  </si>
-  <si>
-    <t>4,273,522</t>
-  </si>
-  <si>
-    <t>4,201,028</t>
-  </si>
-  <si>
-    <t>4,127,614</t>
-  </si>
-  <si>
-    <t>4,239,371</t>
-  </si>
-  <si>
-    <t>4,094,343</t>
-  </si>
-  <si>
-    <t>4,030,285</t>
-  </si>
-  <si>
-    <t>3,923,391</t>
-  </si>
-  <si>
-    <t>3,823,915</t>
-  </si>
-  <si>
-    <t>3,725,393</t>
-  </si>
-  <si>
     <t>以成本衡量之金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>保留盈餘合計</t>
   </si>
   <si>
-    <t>1,753,470</t>
-  </si>
-  <si>
-    <t>1,662,409</t>
-  </si>
-  <si>
-    <t>1,683,481</t>
-  </si>
-  <si>
-    <t>1,794,838</t>
-  </si>
-  <si>
-    <t>1,880,558</t>
-  </si>
-  <si>
-    <t>1,486,854</t>
-  </si>
-  <si>
-    <t>1,520,303</t>
-  </si>
-  <si>
-    <t>1,568,770</t>
-  </si>
-  <si>
-    <t>1,579,272</t>
-  </si>
-  <si>
-    <t>1,477,375</t>
-  </si>
-  <si>
-    <t>1,444,945</t>
-  </si>
-  <si>
-    <t>1,489,929</t>
-  </si>
-  <si>
-    <t>1,478,347</t>
-  </si>
-  <si>
-    <t>1,467,217</t>
-  </si>
-  <si>
-    <t>1,497,743</t>
-  </si>
-  <si>
-    <t>1,567,993</t>
-  </si>
-  <si>
     <t>備供出售金融資產未實現損益</t>
   </si>
   <si>
-    <t>77,105</t>
-  </si>
-  <si>
     <t>備供出售金融資產－流動淨額</t>
   </si>
   <si>
-    <t>324,986</t>
-  </si>
-  <si>
-    <t>249,518</t>
-  </si>
-  <si>
-    <t>307,536</t>
-  </si>
-  <si>
-    <t>244,630</t>
-  </si>
-  <si>
-    <t>336,276</t>
-  </si>
-  <si>
-    <t>307,428</t>
-  </si>
-  <si>
-    <t>154,745</t>
-  </si>
-  <si>
-    <t>228,096</t>
-  </si>
-  <si>
-    <t>262,773</t>
-  </si>
-  <si>
-    <t>238,341</t>
-  </si>
-  <si>
-    <t>231,930</t>
-  </si>
-  <si>
-    <t>120,983</t>
-  </si>
-  <si>
-    <t>228,019</t>
-  </si>
-  <si>
-    <t>182,103</t>
-  </si>
-  <si>
-    <t>176,598</t>
-  </si>
-  <si>
-    <t>414,326</t>
-  </si>
-  <si>
     <t>備供出售金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>298,182</t>
-  </si>
-  <si>
-    <t>298,102</t>
-  </si>
-  <si>
-    <t>304,045</t>
-  </si>
-  <si>
-    <t>306,739</t>
-  </si>
-  <si>
-    <t>304,531</t>
-  </si>
-  <si>
-    <t>291,306</t>
-  </si>
-  <si>
-    <t>265,472</t>
-  </si>
-  <si>
-    <t>260,065</t>
-  </si>
-  <si>
-    <t>259,667</t>
-  </si>
-  <si>
-    <t>244,156</t>
-  </si>
-  <si>
-    <t>253,427</t>
-  </si>
-  <si>
-    <t>253,035</t>
-  </si>
-  <si>
-    <t>255,001</t>
-  </si>
-  <si>
-    <t>242,811</t>
-  </si>
-  <si>
-    <t>257,151</t>
-  </si>
-  <si>
-    <t>260,720</t>
-  </si>
-  <si>
     <t>其他應付款</t>
   </si>
   <si>
-    <t>408,693</t>
-  </si>
-  <si>
-    <t>534,231</t>
-  </si>
-  <si>
-    <t>399,873</t>
-  </si>
-  <si>
-    <t>407,676</t>
-  </si>
-  <si>
-    <t>390,774</t>
-  </si>
-  <si>
-    <t>867,231</t>
-  </si>
-  <si>
-    <t>326,983</t>
-  </si>
-  <si>
-    <t>381,153</t>
-  </si>
-  <si>
-    <t>297,976</t>
-  </si>
-  <si>
-    <t>374,865</t>
-  </si>
-  <si>
-    <t>773,463</t>
-  </si>
-  <si>
-    <t>326,624</t>
-  </si>
-  <si>
-    <t>270,734</t>
-  </si>
-  <si>
-    <t>339,085</t>
-  </si>
-  <si>
-    <t>241,605</t>
-  </si>
-  <si>
-    <t>287,266</t>
-  </si>
-  <si>
     <t>其他應收款淨額</t>
   </si>
   <si>
-    <t>98,364</t>
-  </si>
-  <si>
-    <t>18,514</t>
-  </si>
-  <si>
-    <t>29,542</t>
-  </si>
-  <si>
-    <t>49,765</t>
-  </si>
-  <si>
-    <t>8,170</t>
-  </si>
-  <si>
-    <t>6,628</t>
-  </si>
-  <si>
-    <t>24,651</t>
-  </si>
-  <si>
-    <t>22,395</t>
-  </si>
-  <si>
-    <t>6,645</t>
-  </si>
-  <si>
-    <t>8,444</t>
-  </si>
-  <si>
-    <t>9,553</t>
-  </si>
-  <si>
-    <t>9,391</t>
-  </si>
-  <si>
-    <t>6,563</t>
-  </si>
-  <si>
-    <t>9,151</t>
-  </si>
-  <si>
-    <t>4,115</t>
-  </si>
-  <si>
-    <t>7,221</t>
-  </si>
-  <si>
     <t>其他權益合計</t>
   </si>
   <si>
-    <t>75,647</t>
-  </si>
-  <si>
-    <t>94,198</t>
-  </si>
-  <si>
-    <t>82,214</t>
-  </si>
-  <si>
-    <t>119,409</t>
-  </si>
-  <si>
-    <t>112,571</t>
-  </si>
-  <si>
-    <t>67,801</t>
-  </si>
-  <si>
-    <t>120,068</t>
-  </si>
-  <si>
-    <t>167,234</t>
-  </si>
-  <si>
-    <t>149,762</t>
-  </si>
-  <si>
-    <t>115,954</t>
-  </si>
-  <si>
-    <t>180,968</t>
-  </si>
-  <si>
-    <t>119,858</t>
-  </si>
-  <si>
-    <t>122,286</t>
-  </si>
-  <si>
-    <t>68,200</t>
-  </si>
-  <si>
-    <t>45,594</t>
-  </si>
-  <si>
-    <t>27,667</t>
-  </si>
-  <si>
     <t>其他流動負債</t>
   </si>
   <si>
-    <t>336,442</t>
-  </si>
-  <si>
-    <t>347,799</t>
-  </si>
-  <si>
-    <t>359,930</t>
-  </si>
-  <si>
-    <t>349,969</t>
-  </si>
-  <si>
-    <t>422,427</t>
-  </si>
-  <si>
-    <t>422,308</t>
-  </si>
-  <si>
-    <t>1,001,698</t>
-  </si>
-  <si>
-    <t>989,903</t>
-  </si>
-  <si>
-    <t>55,441</t>
-  </si>
-  <si>
-    <t>59,825</t>
-  </si>
-  <si>
-    <t>58,362</t>
-  </si>
-  <si>
-    <t>47,102</t>
-  </si>
-  <si>
-    <t>161,115</t>
-  </si>
-  <si>
-    <t>149,494</t>
-  </si>
-  <si>
-    <t>261,382</t>
-  </si>
-  <si>
-    <t>259,309</t>
-  </si>
-  <si>
     <t>其他流動資產</t>
   </si>
   <si>
-    <t>39,884</t>
-  </si>
-  <si>
-    <t>56,161</t>
-  </si>
-  <si>
-    <t>58,579</t>
-  </si>
-  <si>
-    <t>34,738</t>
-  </si>
-  <si>
-    <t>43,210</t>
-  </si>
-  <si>
-    <t>29,998</t>
-  </si>
-  <si>
-    <t>28,318</t>
-  </si>
-  <si>
-    <t>28,097</t>
-  </si>
-  <si>
-    <t>28,333</t>
-  </si>
-  <si>
-    <t>33,130</t>
-  </si>
-  <si>
-    <t>34,861</t>
-  </si>
-  <si>
-    <t>80,992</t>
-  </si>
-  <si>
-    <t>80,979</t>
-  </si>
-  <si>
-    <t>80,977</t>
-  </si>
-  <si>
-    <t>85,670</t>
-  </si>
-  <si>
-    <t>92,698</t>
-  </si>
-  <si>
     <t>其他非流動負債</t>
   </si>
   <si>
-    <t>352,803</t>
-  </si>
-  <si>
-    <t>380,530</t>
-  </si>
-  <si>
-    <t>350,478</t>
-  </si>
-  <si>
-    <t>413,927</t>
-  </si>
-  <si>
-    <t>415,794</t>
-  </si>
-  <si>
-    <t>393,671</t>
-  </si>
-  <si>
-    <t>369,005</t>
-  </si>
-  <si>
-    <t>404,050</t>
-  </si>
-  <si>
-    <t>361,315</t>
-  </si>
-  <si>
-    <t>331,785</t>
-  </si>
-  <si>
-    <t>305,717</t>
-  </si>
-  <si>
-    <t>323,089</t>
-  </si>
-  <si>
-    <t>306,722</t>
-  </si>
-  <si>
-    <t>309,890</t>
-  </si>
-  <si>
-    <t>301,154</t>
-  </si>
-  <si>
-    <t>303,101</t>
-  </si>
-  <si>
     <t>其他非流動資產</t>
   </si>
   <si>
-    <t>322,107</t>
-  </si>
-  <si>
-    <t>325,380</t>
-  </si>
-  <si>
-    <t>344,566</t>
-  </si>
-  <si>
-    <t>394,548</t>
-  </si>
-  <si>
-    <t>371,965</t>
-  </si>
-  <si>
-    <t>344,759</t>
-  </si>
-  <si>
-    <t>348,301</t>
-  </si>
-  <si>
-    <t>368,075</t>
-  </si>
-  <si>
-    <t>370,407</t>
-  </si>
-  <si>
-    <t>345,876</t>
-  </si>
-  <si>
-    <t>352,561</t>
-  </si>
-  <si>
-    <t>328,824</t>
-  </si>
-  <si>
-    <t>326,385</t>
-  </si>
-  <si>
-    <t>320,038</t>
-  </si>
-  <si>
-    <t>308,033</t>
-  </si>
-  <si>
-    <t>310,353</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>-1,458</t>
-  </si>
-  <si>
     <t>存貨</t>
   </si>
   <si>
-    <t>807,388</t>
-  </si>
-  <si>
-    <t>925,850</t>
-  </si>
-  <si>
-    <t>835,700</t>
-  </si>
-  <si>
-    <t>792,637</t>
-  </si>
-  <si>
-    <t>851,995</t>
-  </si>
-  <si>
-    <t>841,059</t>
-  </si>
-  <si>
-    <t>917,070</t>
-  </si>
-  <si>
-    <t>848,020</t>
-  </si>
-  <si>
-    <t>879,860</t>
-  </si>
-  <si>
-    <t>844,869</t>
-  </si>
-  <si>
-    <t>874,743</t>
-  </si>
-  <si>
-    <t>806,322</t>
-  </si>
-  <si>
-    <t>791,727</t>
-  </si>
-  <si>
-    <t>816,882</t>
-  </si>
-  <si>
-    <t>776,263</t>
-  </si>
-  <si>
-    <t>855,818</t>
-  </si>
-  <si>
     <t>庫藏股票</t>
   </si>
   <si>
@@ -751,1453 +166,121 @@
     <t>應付帳款</t>
   </si>
   <si>
-    <t>275,665</t>
-  </si>
-  <si>
-    <t>296,371</t>
-  </si>
-  <si>
-    <t>320,109</t>
-  </si>
-  <si>
-    <t>276,075</t>
-  </si>
-  <si>
-    <t>249,230</t>
-  </si>
-  <si>
-    <t>276,027</t>
-  </si>
-  <si>
-    <t>164,861</t>
-  </si>
-  <si>
-    <t>145,134</t>
-  </si>
-  <si>
-    <t>124,879</t>
-  </si>
-  <si>
-    <t>194,329</t>
-  </si>
-  <si>
-    <t>319,965</t>
-  </si>
-  <si>
-    <t>193,929</t>
-  </si>
-  <si>
-    <t>163,993</t>
-  </si>
-  <si>
-    <t>137,747</t>
-  </si>
-  <si>
-    <t>157,854</t>
-  </si>
-  <si>
-    <t>304,882</t>
-  </si>
-  <si>
     <t>應付帳款－關係人</t>
   </si>
   <si>
-    <t>2,764</t>
-  </si>
-  <si>
-    <t>2,811</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
     <t>應付票據</t>
   </si>
   <si>
-    <t>81,623</t>
-  </si>
-  <si>
-    <t>97,762</t>
-  </si>
-  <si>
-    <t>93,881</t>
-  </si>
-  <si>
-    <t>126,078</t>
-  </si>
-  <si>
-    <t>102,835</t>
-  </si>
-  <si>
-    <t>90,691</t>
-  </si>
-  <si>
-    <t>111,805</t>
-  </si>
-  <si>
-    <t>117,669</t>
-  </si>
-  <si>
-    <t>71,150</t>
-  </si>
-  <si>
-    <t>91,055</t>
-  </si>
-  <si>
-    <t>137,037</t>
-  </si>
-  <si>
-    <t>87,694</t>
-  </si>
-  <si>
-    <t>84,222</t>
-  </si>
-  <si>
-    <t>88,044</t>
-  </si>
-  <si>
-    <t>83,397</t>
-  </si>
-  <si>
-    <t>97,596</t>
-  </si>
-  <si>
     <t>應付票據－關係人</t>
   </si>
   <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>1,524</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>1,064</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>1,230</t>
-  </si>
-  <si>
-    <t>1,029</t>
-  </si>
-  <si>
-    <t>986</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>868</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
     <t>應收帳款淨額</t>
   </si>
   <si>
-    <t>251,287</t>
-  </si>
-  <si>
-    <t>247,682</t>
-  </si>
-  <si>
-    <t>235,395</t>
-  </si>
-  <si>
-    <t>289,974</t>
-  </si>
-  <si>
-    <t>280,555</t>
-  </si>
-  <si>
-    <t>277,289</t>
-  </si>
-  <si>
-    <t>293,601</t>
-  </si>
-  <si>
-    <t>303,183</t>
-  </si>
-  <si>
-    <t>197,497</t>
-  </si>
-  <si>
-    <t>213,736</t>
-  </si>
-  <si>
-    <t>216,592</t>
-  </si>
-  <si>
-    <t>233,593</t>
-  </si>
-  <si>
-    <t>195,622</t>
-  </si>
-  <si>
-    <t>197,489</t>
-  </si>
-  <si>
-    <t>155,661</t>
-  </si>
-  <si>
-    <t>173,870</t>
-  </si>
-  <si>
     <t>應收帳款－關係人淨額</t>
   </si>
   <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>6,374</t>
-  </si>
-  <si>
-    <t>8,121</t>
-  </si>
-  <si>
-    <t>7,328</t>
-  </si>
-  <si>
-    <t>5,302</t>
-  </si>
-  <si>
-    <t>6,461</t>
-  </si>
-  <si>
-    <t>4,696</t>
-  </si>
-  <si>
-    <t>7,020</t>
-  </si>
-  <si>
-    <t>6,955</t>
-  </si>
-  <si>
-    <t>7,407</t>
-  </si>
-  <si>
-    <t>5,269</t>
-  </si>
-  <si>
-    <t>5,427</t>
-  </si>
-  <si>
-    <t>4,865</t>
-  </si>
-  <si>
-    <t>4,741</t>
-  </si>
-  <si>
-    <t>4,592</t>
-  </si>
-  <si>
-    <t>3,903</t>
-  </si>
-  <si>
     <t>應收票據淨額</t>
   </si>
   <si>
-    <t>196,111</t>
-  </si>
-  <si>
-    <t>240,175</t>
-  </si>
-  <si>
-    <t>316,228</t>
-  </si>
-  <si>
-    <t>618,542</t>
-  </si>
-  <si>
-    <t>637,994</t>
-  </si>
-  <si>
-    <t>854,726</t>
-  </si>
-  <si>
-    <t>402,959</t>
-  </si>
-  <si>
-    <t>526,122</t>
-  </si>
-  <si>
-    <t>396,461</t>
-  </si>
-  <si>
-    <t>565,508</t>
-  </si>
-  <si>
-    <t>521,339</t>
-  </si>
-  <si>
-    <t>394,437</t>
-  </si>
-  <si>
-    <t>361,584</t>
-  </si>
-  <si>
-    <t>481,176</t>
-  </si>
-  <si>
-    <t>502,979</t>
-  </si>
-  <si>
-    <t>458,934</t>
-  </si>
-  <si>
     <t>應收票據－關係人淨額</t>
   </si>
   <si>
-    <t>2,713</t>
-  </si>
-  <si>
-    <t>967</t>
-  </si>
-  <si>
-    <t>6,847</t>
-  </si>
-  <si>
-    <t>10,290</t>
-  </si>
-  <si>
-    <t>15,876</t>
-  </si>
-  <si>
-    <t>7,056</t>
-  </si>
-  <si>
-    <t>5,703</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>1,863</t>
-  </si>
-  <si>
     <t>投資性不動產淨額</t>
   </si>
   <si>
-    <t>1,527,545</t>
-  </si>
-  <si>
-    <t>1,525,831</t>
-  </si>
-  <si>
-    <t>1,523,797</t>
-  </si>
-  <si>
-    <t>1,521,764</t>
-  </si>
-  <si>
-    <t>1,519,730</t>
-  </si>
-  <si>
-    <t>1,517,696</t>
-  </si>
-  <si>
-    <t>1,515,663</t>
-  </si>
-  <si>
-    <t>1,526,771</t>
-  </si>
-  <si>
-    <t>1,524,761</t>
-  </si>
-  <si>
-    <t>1,526,029</t>
-  </si>
-  <si>
-    <t>1,523,876</t>
-  </si>
-  <si>
-    <t>1,493,706</t>
-  </si>
-  <si>
-    <t>1,492,021</t>
-  </si>
-  <si>
-    <t>1,489,975</t>
-  </si>
-  <si>
-    <t>1,488,080</t>
-  </si>
-  <si>
-    <t>1,486,515</t>
-  </si>
-  <si>
     <t>採用權益法之投資淨額</t>
   </si>
   <si>
-    <t>4,130</t>
-  </si>
-  <si>
-    <t>3,488</t>
-  </si>
-  <si>
-    <t>3,268</t>
-  </si>
-  <si>
-    <t>1,583</t>
-  </si>
-  <si>
-    <t>1,378</t>
-  </si>
-  <si>
-    <t>1,102</t>
-  </si>
-  <si>
-    <t>1,006</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>4,672</t>
-  </si>
-  <si>
-    <t>4,547</t>
-  </si>
-  <si>
     <t>普通股股本</t>
   </si>
   <si>
-    <t>4,210,008</t>
-  </si>
-  <si>
-    <t>3,789,007</t>
-  </si>
-  <si>
     <t>未分配盈餘（或待彌補虧損）</t>
   </si>
   <si>
-    <t>594,818</t>
-  </si>
-  <si>
-    <t>482,463</t>
-  </si>
-  <si>
-    <t>503,535</t>
-  </si>
-  <si>
-    <t>614,892</t>
-  </si>
-  <si>
-    <t>700,612</t>
-  </si>
-  <si>
-    <t>291,968</t>
-  </si>
-  <si>
-    <t>325,417</t>
-  </si>
-  <si>
-    <t>373,884</t>
-  </si>
-  <si>
-    <t>384,386</t>
-  </si>
-  <si>
-    <t>254,135</t>
-  </si>
-  <si>
-    <t>221,705</t>
-  </si>
-  <si>
-    <t>266,689</t>
-  </si>
-  <si>
-    <t>255,107</t>
-  </si>
-  <si>
-    <t>242,179</t>
-  </si>
-  <si>
-    <t>272,705</t>
-  </si>
-  <si>
-    <t>342,955</t>
-  </si>
-  <si>
     <t>本期所得稅負債</t>
   </si>
   <si>
-    <t>17,751</t>
-  </si>
-  <si>
-    <t>30,294</t>
-  </si>
-  <si>
-    <t>19,255</t>
-  </si>
-  <si>
-    <t>33,597</t>
-  </si>
-  <si>
-    <t>40,801</t>
-  </si>
-  <si>
-    <t>15,487</t>
-  </si>
-  <si>
-    <t>3,871</t>
-  </si>
-  <si>
-    <t>8,114</t>
-  </si>
-  <si>
     <t>本期所得稅資產</t>
   </si>
   <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>權益總計</t>
   </si>
   <si>
-    <t>6,971,521</t>
-  </si>
-  <si>
-    <t>6,914,699</t>
-  </si>
-  <si>
-    <t>6,908,200</t>
-  </si>
-  <si>
-    <t>7,126,364</t>
-  </si>
-  <si>
-    <t>7,223,050</t>
-  </si>
-  <si>
-    <t>6,802,690</t>
-  </si>
-  <si>
-    <t>6,900,056</t>
-  </si>
-  <si>
-    <t>7,032,121</t>
-  </si>
-  <si>
-    <t>7,007,616</t>
-  </si>
-  <si>
-    <t>6,843,029</t>
-  </si>
-  <si>
-    <t>6,442,124</t>
-  </si>
-  <si>
-    <t>6,387,928</t>
-  </si>
-  <si>
-    <t>6,353,801</t>
-  </si>
-  <si>
-    <t>6,280,820</t>
-  </si>
-  <si>
-    <t>6,266,429</t>
-  </si>
-  <si>
-    <t>6,328,821</t>
-  </si>
-  <si>
     <t>歸屬於母公司業主之權益合計</t>
   </si>
   <si>
-    <t>6,061,424</t>
-  </si>
-  <si>
-    <t>5,988,914</t>
-  </si>
-  <si>
-    <t>5,998,002</t>
-  </si>
-  <si>
-    <t>6,146,554</t>
-  </si>
-  <si>
-    <t>6,225,436</t>
-  </si>
-  <si>
-    <t>5,786,962</t>
-  </si>
-  <si>
-    <t>5,872,678</t>
-  </si>
-  <si>
-    <t>5,968,311</t>
-  </si>
-  <si>
-    <t>5,961,341</t>
-  </si>
-  <si>
-    <t>5,825,636</t>
-  </si>
-  <si>
-    <t>5,437,219</t>
-  </si>
-  <si>
-    <t>5,421,093</t>
-  </si>
-  <si>
-    <t>5,411,939</t>
-  </si>
-  <si>
-    <t>5,346,723</t>
-  </si>
-  <si>
-    <t>5,354,643</t>
-  </si>
-  <si>
-    <t>5,406,966</t>
-  </si>
-  <si>
     <t>母公司暨子公司所持有之母公司庫藏股股數（單位：股）</t>
   </si>
   <si>
     <t>法定盈餘公積</t>
   </si>
   <si>
-    <t>1,116,298</t>
-  </si>
-  <si>
-    <t>1,125,079</t>
-  </si>
-  <si>
-    <t>1,152,532</t>
-  </si>
-  <si>
-    <t>1,180,886</t>
-  </si>
-  <si>
-    <t>1,182,684</t>
-  </si>
-  <si>
     <t>流動負債合計</t>
   </si>
   <si>
-    <t>1,131,021</t>
-  </si>
-  <si>
-    <t>1,298,759</t>
-  </si>
-  <si>
-    <t>1,190,981</t>
-  </si>
-  <si>
-    <t>1,299,038</t>
-  </si>
-  <si>
-    <t>1,440,176</t>
-  </si>
-  <si>
-    <t>1,943,006</t>
-  </si>
-  <si>
-    <t>1,796,412</t>
-  </si>
-  <si>
-    <t>1,840,346</t>
-  </si>
-  <si>
-    <t>759,736</t>
-  </si>
-  <si>
-    <t>941,266</t>
-  </si>
-  <si>
-    <t>1,511,428</t>
-  </si>
-  <si>
-    <t>946,924</t>
-  </si>
-  <si>
-    <t>969,912</t>
-  </si>
-  <si>
-    <t>979,826</t>
-  </si>
-  <si>
-    <t>984,222</t>
-  </si>
-  <si>
-    <t>1,239,358</t>
-  </si>
-  <si>
     <t>流動資產合計</t>
   </si>
   <si>
-    <t>2,923,669</t>
-  </si>
-  <si>
-    <t>3,040,733</t>
-  </si>
-  <si>
-    <t>2,788,597</t>
-  </si>
-  <si>
-    <t>3,097,944</t>
-  </si>
-  <si>
-    <t>3,190,116</t>
-  </si>
-  <si>
-    <t>3,346,895</t>
-  </si>
-  <si>
-    <t>2,595,882</t>
-  </si>
-  <si>
-    <t>2,767,192</t>
-  </si>
-  <si>
-    <t>2,621,817</t>
-  </si>
-  <si>
-    <t>2,706,882</t>
-  </si>
-  <si>
-    <t>2,803,030</t>
-  </si>
-  <si>
-    <t>2,385,481</t>
-  </si>
-  <si>
-    <t>2,318,190</t>
-  </si>
-  <si>
-    <t>2,386,724</t>
-  </si>
-  <si>
-    <t>2,350,290</t>
-  </si>
-  <si>
-    <t>2,784,672</t>
-  </si>
-  <si>
     <t>無形資產</t>
   </si>
   <si>
-    <t>5,941</t>
-  </si>
-  <si>
-    <t>5,869</t>
-  </si>
-  <si>
-    <t>5,631</t>
-  </si>
-  <si>
-    <t>5,557</t>
-  </si>
-  <si>
-    <t>5,362</t>
-  </si>
-  <si>
-    <t>5,094</t>
-  </si>
-  <si>
-    <t>5,049</t>
-  </si>
-  <si>
-    <t>5,030</t>
-  </si>
-  <si>
-    <t>4,804</t>
-  </si>
-  <si>
-    <t>4,560</t>
-  </si>
-  <si>
-    <t>4,562</t>
-  </si>
-  <si>
-    <t>4,310</t>
-  </si>
-  <si>
-    <t>4,109</t>
-  </si>
-  <si>
-    <t>3,828</t>
-  </si>
-  <si>
-    <t>3,538</t>
-  </si>
-  <si>
-    <t>3,313</t>
-  </si>
-  <si>
     <t>特別盈餘公積</t>
   </si>
   <si>
-    <t>42,354</t>
-  </si>
-  <si>
-    <t>54,867</t>
-  </si>
-  <si>
     <t>現金及約當現金</t>
   </si>
   <si>
-    <t>1,020,937</t>
-  </si>
-  <si>
-    <t>1,018,615</t>
-  </si>
-  <si>
-    <t>819,400</t>
-  </si>
-  <si>
-    <t>929,771</t>
-  </si>
-  <si>
-    <t>905,517</t>
-  </si>
-  <si>
-    <t>950,247</t>
-  </si>
-  <si>
-    <t>692,337</t>
-  </si>
-  <si>
-    <t>746,356</t>
-  </si>
-  <si>
-    <t>742,988</t>
-  </si>
-  <si>
-    <t>722,075</t>
-  </si>
-  <si>
-    <t>825,466</t>
-  </si>
-  <si>
-    <t>675,075</t>
-  </si>
-  <si>
-    <t>544,318</t>
-  </si>
-  <si>
-    <t>565,145</t>
-  </si>
-  <si>
-    <t>594,668</t>
-  </si>
-  <si>
-    <t>746,203</t>
-  </si>
-  <si>
     <t>當期所得稅負債</t>
   </si>
   <si>
-    <t>25,279</t>
-  </si>
-  <si>
-    <t>18,261</t>
-  </si>
-  <si>
-    <t>16,290</t>
-  </si>
-  <si>
-    <t>42,336</t>
-  </si>
-  <si>
-    <t>50,570</t>
-  </si>
-  <si>
-    <t>66,098</t>
-  </si>
-  <si>
-    <t>7,420</t>
-  </si>
-  <si>
-    <t>14,456</t>
-  </si>
-  <si>
     <t>當期所得稅資產</t>
   </si>
   <si>
-    <t>1,761</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
     <t>短期借款</t>
   </si>
   <si>
-    <t>95,840</t>
-  </si>
-  <si>
-    <t>223,730</t>
-  </si>
-  <si>
-    <t>219,421</t>
-  </si>
-  <si>
-    <t>182,616</t>
-  </si>
-  <si>
-    <t>190,308</t>
-  </si>
-  <si>
-    <t>191,546</t>
-  </si>
-  <si>
-    <t>189,527</t>
-  </si>
-  <si>
-    <t>202,081</t>
-  </si>
-  <si>
-    <t>257,058</t>
-  </si>
-  <si>
-    <t>248,517</t>
-  </si>
-  <si>
-    <t>249,188</t>
-  </si>
-  <si>
-    <t>235,325</t>
-  </si>
-  <si>
-    <t>281,543</t>
-  </si>
-  <si>
     <t>股本合計</t>
   </si>
   <si>
     <t>負債及權益總計</t>
   </si>
   <si>
-    <t>9,065,026</t>
-  </si>
-  <si>
-    <t>9,035,090</t>
-  </si>
-  <si>
-    <t>9,253,975</t>
-  </si>
-  <si>
-    <t>8,636,326</t>
-  </si>
-  <si>
-    <t>8,502,711</t>
-  </si>
-  <si>
-    <t>8,442,895</t>
-  </si>
-  <si>
-    <t>8,308,838</t>
-  </si>
-  <si>
-    <t>8,643,664</t>
-  </si>
-  <si>
     <t>負債總計</t>
   </si>
   <si>
-    <t>2,556,433</t>
-  </si>
-  <si>
-    <t>2,758,354</t>
-  </si>
-  <si>
-    <t>2,461,129</t>
-  </si>
-  <si>
-    <t>2,662,872</t>
-  </si>
-  <si>
-    <t>2,575,691</t>
-  </si>
-  <si>
-    <t>3,049,680</t>
-  </si>
-  <si>
-    <t>2,202,406</t>
-  </si>
-  <si>
-    <t>2,251,394</t>
-  </si>
-  <si>
-    <t>2,057,410</t>
-  </si>
-  <si>
-    <t>2,192,061</t>
-  </si>
-  <si>
-    <t>2,811,851</t>
-  </si>
-  <si>
-    <t>2,248,398</t>
-  </si>
-  <si>
-    <t>2,148,910</t>
-  </si>
-  <si>
-    <t>2,162,075</t>
-  </si>
-  <si>
-    <t>2,042,409</t>
-  </si>
-  <si>
-    <t>2,314,843</t>
-  </si>
-  <si>
     <t>資本公積合計</t>
   </si>
   <si>
-    <t>22,299</t>
-  </si>
-  <si>
     <t>資本公積－庫藏股票交易</t>
   </si>
   <si>
     <t>資產總計</t>
   </si>
   <si>
-    <t>9,527,954</t>
-  </si>
-  <si>
-    <t>9,673,053</t>
-  </si>
-  <si>
-    <t>9,369,329</t>
-  </si>
-  <si>
-    <t>9,789,236</t>
-  </si>
-  <si>
-    <t>9,798,741</t>
-  </si>
-  <si>
-    <t>9,852,370</t>
-  </si>
-  <si>
-    <t>9,102,462</t>
-  </si>
-  <si>
-    <t>9,283,515</t>
-  </si>
-  <si>
     <t>透過損益按公允價值衡量之金融資產－流動</t>
   </si>
   <si>
-    <t>122,200</t>
-  </si>
-  <si>
     <t>遞延所得稅負債</t>
   </si>
   <si>
-    <t>18,117</t>
-  </si>
-  <si>
-    <t>22,013</t>
-  </si>
-  <si>
-    <t>28,272</t>
-  </si>
-  <si>
-    <t>50,188</t>
-  </si>
-  <si>
-    <t>41,452</t>
-  </si>
-  <si>
-    <t>46,978</t>
-  </si>
-  <si>
-    <t>36,989</t>
-  </si>
-  <si>
-    <t>6,998</t>
-  </si>
-  <si>
-    <t>6,922</t>
-  </si>
-  <si>
-    <t>6,923</t>
-  </si>
-  <si>
-    <t>5,319</t>
-  </si>
-  <si>
-    <t>4,899</t>
-  </si>
-  <si>
-    <t>3,709</t>
-  </si>
-  <si>
     <t>遞延所得稅資產</t>
   </si>
   <si>
-    <t>81,294</t>
-  </si>
-  <si>
-    <t>88,230</t>
-  </si>
-  <si>
-    <t>95,803</t>
-  </si>
-  <si>
-    <t>126,372</t>
-  </si>
-  <si>
-    <t>114,135</t>
-  </si>
-  <si>
-    <t>120,475</t>
-  </si>
-  <si>
-    <t>108,389</t>
-  </si>
-  <si>
-    <t>79,372</t>
-  </si>
-  <si>
-    <t>79,274</t>
-  </si>
-  <si>
-    <t>78,390</t>
-  </si>
-  <si>
-    <t>75,770</t>
-  </si>
-  <si>
-    <t>75,525</t>
-  </si>
-  <si>
-    <t>75,714</t>
-  </si>
-  <si>
-    <t>75,300</t>
-  </si>
-  <si>
-    <t>73,159</t>
-  </si>
-  <si>
-    <t>68,151</t>
-  </si>
-  <si>
     <t>長期借款</t>
   </si>
   <si>
-    <t>1,054,492</t>
-  </si>
-  <si>
-    <t>1,057,052</t>
-  </si>
-  <si>
-    <t>891,398</t>
-  </si>
-  <si>
-    <t>899,719</t>
-  </si>
-  <si>
-    <t>678,269</t>
-  </si>
-  <si>
-    <t>666,025</t>
-  </si>
-  <si>
-    <t>929,437</t>
-  </si>
-  <si>
-    <t>912,088</t>
-  </si>
-  <si>
-    <t>987,783</t>
-  </si>
-  <si>
-    <t>973,066</t>
-  </si>
-  <si>
-    <t>867,377</t>
-  </si>
-  <si>
-    <t>867,460</t>
-  </si>
-  <si>
-    <t>752,134</t>
-  </si>
-  <si>
-    <t>768,675</t>
-  </si>
-  <si>
     <t>非控制權益</t>
   </si>
   <si>
-    <t>910,097</t>
-  </si>
-  <si>
-    <t>925,785</t>
-  </si>
-  <si>
-    <t>910,198</t>
-  </si>
-  <si>
-    <t>979,810</t>
-  </si>
-  <si>
-    <t>997,614</t>
-  </si>
-  <si>
-    <t>1,015,728</t>
-  </si>
-  <si>
-    <t>1,027,378</t>
-  </si>
-  <si>
-    <t>1,063,810</t>
-  </si>
-  <si>
-    <t>1,046,275</t>
-  </si>
-  <si>
-    <t>1,017,393</t>
-  </si>
-  <si>
-    <t>1,004,905</t>
-  </si>
-  <si>
-    <t>966,835</t>
-  </si>
-  <si>
-    <t>941,862</t>
-  </si>
-  <si>
-    <t>934,097</t>
-  </si>
-  <si>
-    <t>911,786</t>
-  </si>
-  <si>
-    <t>921,855</t>
-  </si>
-  <si>
     <t>非流動負債合計</t>
   </si>
   <si>
-    <t>1,425,412</t>
-  </si>
-  <si>
-    <t>1,459,595</t>
-  </si>
-  <si>
-    <t>1,270,148</t>
-  </si>
-  <si>
-    <t>1,363,834</t>
-  </si>
-  <si>
-    <t>1,135,515</t>
-  </si>
-  <si>
-    <t>1,106,674</t>
-  </si>
-  <si>
-    <t>405,994</t>
-  </si>
-  <si>
-    <t>411,048</t>
-  </si>
-  <si>
-    <t>1,297,674</t>
-  </si>
-  <si>
-    <t>1,250,795</t>
-  </si>
-  <si>
-    <t>1,300,423</t>
-  </si>
-  <si>
-    <t>1,301,474</t>
-  </si>
-  <si>
-    <t>1,178,998</t>
-  </si>
-  <si>
-    <t>1,182,249</t>
-  </si>
-  <si>
-    <t>1,058,187</t>
-  </si>
-  <si>
-    <t>1,075,485</t>
-  </si>
-  <si>
     <t>非流動資產合計</t>
   </si>
   <si>
-    <t>6,604,285</t>
-  </si>
-  <si>
-    <t>6,632,320</t>
-  </si>
-  <si>
-    <t>6,580,732</t>
-  </si>
-  <si>
-    <t>6,691,292</t>
-  </si>
-  <si>
-    <t>6,608,625</t>
-  </si>
-  <si>
-    <t>6,505,475</t>
-  </si>
-  <si>
-    <t>6,506,580</t>
-  </si>
-  <si>
-    <t>6,516,323</t>
-  </si>
-  <si>
-    <t>6,443,209</t>
-  </si>
-  <si>
-    <t>6,328,208</t>
-  </si>
-  <si>
-    <t>6,450,945</t>
-  </si>
-  <si>
-    <t>6,250,845</t>
-  </si>
-  <si>
-    <t>6,184,521</t>
-  </si>
-  <si>
-    <t>6,056,171</t>
-  </si>
-  <si>
-    <t>5,958,548</t>
-  </si>
-  <si>
-    <t>5,858,992</t>
-  </si>
-  <si>
     <t>預付款項</t>
-  </si>
-  <si>
-    <t>182,094</t>
-  </si>
-  <si>
-    <t>152,742</t>
-  </si>
-  <si>
-    <t>176,916</t>
-  </si>
-  <si>
-    <t>123,393</t>
-  </si>
-  <si>
-    <t>110,519</t>
-  </si>
-  <si>
-    <t>56,897</t>
-  </si>
-  <si>
-    <t>70,141</t>
-  </si>
-  <si>
-    <t>51,867</t>
-  </si>
-  <si>
-    <t>99,521</t>
-  </si>
-  <si>
-    <t>72,697</t>
-  </si>
-  <si>
-    <t>81,215</t>
-  </si>
-  <si>
-    <t>59,041</t>
-  </si>
-  <si>
-    <t>104,317</t>
-  </si>
-  <si>
-    <t>48,919</t>
-  </si>
-  <si>
-    <t>49,632</t>
-  </si>
-  <si>
-    <t>31,588</t>
   </si>
   <si>
     <t>預收股款（權益項下）之約當發行股數（單位：股）</t>
@@ -2659,98 +742,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>4369216</v>
       </c>
       <c r="C2" t="n">
         <v>45.86</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>4388908</v>
       </c>
       <c r="E2" t="n">
         <v>45.37</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>4306890</v>
       </c>
       <c r="G2" t="n">
         <v>45.97</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>4336312</v>
       </c>
       <c r="I2" t="n">
         <v>44.3</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>4292902</v>
       </c>
       <c r="K2" t="n">
         <v>43.81</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>4226145</v>
       </c>
       <c r="M2" t="n">
         <v>42.89</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>4259576</v>
       </c>
       <c r="O2" t="n">
         <v>46.8</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>4273522</v>
       </c>
       <c r="Q2" t="n">
         <v>46.03</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>4201028</v>
       </c>
       <c r="S2" t="n">
         <v>46.34</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>4127614</v>
       </c>
       <c r="U2" t="n">
         <v>45.68</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>4239371</v>
       </c>
       <c r="W2" t="n">
         <v>45.81</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>4094343</v>
       </c>
       <c r="Y2" t="n">
         <v>47.41</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>4030285</v>
       </c>
       <c r="AA2" t="n">
         <v>47.4</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>3923391</v>
       </c>
       <c r="AC2" t="n">
         <v>46.47</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>3823915</v>
       </c>
       <c r="AE2" t="n">
         <v>46.02</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>3725393</v>
       </c>
       <c r="AG2" t="n">
         <v>43.1</v>
@@ -2758,96 +841,96 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>50</v>
+      <c r="L3" t="n">
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>50</v>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
-        <v>50</v>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
-        <v>50</v>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
-      <c r="T3" t="s">
-        <v>50</v>
+      <c r="T3" t="n">
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>50</v>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="X3" t="s">
-        <v>50</v>
+      <c r="X3" t="n">
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" t="s">
-        <v>50</v>
+      <c r="Z3" t="n">
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
-      <c r="AB3" t="s">
-        <v>50</v>
+      <c r="AB3" t="n">
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
-      <c r="AD3" t="s">
-        <v>50</v>
+      <c r="AD3" t="n">
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
-      <c r="AF3" t="s">
-        <v>50</v>
+      <c r="AF3" t="n">
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -2855,100 +938,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1753470</v>
       </c>
       <c r="C4" t="n">
         <v>18.4</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
+      <c r="D4" t="n">
+        <v>1662409</v>
       </c>
       <c r="E4" t="n">
         <v>17.19</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
+      <c r="F4" t="n">
+        <v>1683481</v>
       </c>
       <c r="G4" t="n">
         <v>17.97</v>
       </c>
-      <c r="H4" t="s">
-        <v>55</v>
+      <c r="H4" t="n">
+        <v>1794838</v>
       </c>
       <c r="I4" t="n">
         <v>18.33</v>
       </c>
-      <c r="J4" t="s">
-        <v>56</v>
+      <c r="J4" t="n">
+        <v>1880558</v>
       </c>
       <c r="K4" t="n">
         <v>19.19</v>
       </c>
-      <c r="L4" t="s">
-        <v>57</v>
+      <c r="L4" t="n">
+        <v>1486854</v>
       </c>
       <c r="M4" t="n">
         <v>15.09</v>
       </c>
-      <c r="N4" t="s">
-        <v>58</v>
+      <c r="N4" t="n">
+        <v>1520303</v>
       </c>
       <c r="O4" t="n">
         <v>16.7</v>
       </c>
-      <c r="P4" t="s">
-        <v>59</v>
+      <c r="P4" t="n">
+        <v>1568770</v>
       </c>
       <c r="Q4" t="n">
         <v>16.9</v>
       </c>
-      <c r="R4" t="s">
-        <v>60</v>
+      <c r="R4" t="n">
+        <v>1579272</v>
       </c>
       <c r="S4" t="n">
         <v>17.42</v>
       </c>
-      <c r="T4" t="s">
-        <v>61</v>
+      <c r="T4" t="n">
+        <v>1477375</v>
       </c>
       <c r="U4" t="n">
         <v>16.35</v>
       </c>
-      <c r="V4" t="s">
-        <v>62</v>
+      <c r="V4" t="n">
+        <v>1444945</v>
       </c>
       <c r="W4" t="n">
         <v>15.61</v>
       </c>
-      <c r="X4" t="s">
-        <v>63</v>
+      <c r="X4" t="n">
+        <v>1489929</v>
       </c>
       <c r="Y4" t="n">
         <v>17.25</v>
       </c>
-      <c r="Z4" t="s">
-        <v>64</v>
+      <c r="Z4" t="n">
+        <v>1478347</v>
       </c>
       <c r="AA4" t="n">
         <v>17.39</v>
       </c>
-      <c r="AB4" t="s">
-        <v>65</v>
+      <c r="AB4" t="n">
+        <v>1467217</v>
       </c>
       <c r="AC4" t="n">
         <v>17.38</v>
       </c>
-      <c r="AD4" t="s">
-        <v>66</v>
+      <c r="AD4" t="n">
+        <v>1497743</v>
       </c>
       <c r="AE4" t="n">
         <v>18.03</v>
       </c>
-      <c r="AF4" t="s">
-        <v>67</v>
+      <c r="AF4" t="n">
+        <v>1567993</v>
       </c>
       <c r="AG4" t="n">
         <v>18.14</v>
@@ -2956,10 +1039,10 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>77105</v>
       </c>
       <c r="C5" t="n">
         <v>0.8100000000000001</v>
@@ -2997,100 +1080,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>324986</v>
       </c>
       <c r="C6" t="n">
         <v>3.41</v>
       </c>
-      <c r="D6" t="s">
-        <v>72</v>
+      <c r="D6" t="n">
+        <v>249518</v>
       </c>
       <c r="E6" t="n">
         <v>2.58</v>
       </c>
-      <c r="F6" t="s">
-        <v>73</v>
+      <c r="F6" t="n">
+        <v>307536</v>
       </c>
       <c r="G6" t="n">
         <v>3.28</v>
       </c>
-      <c r="H6" t="s">
-        <v>74</v>
+      <c r="H6" t="n">
+        <v>244630</v>
       </c>
       <c r="I6" t="n">
         <v>2.5</v>
       </c>
-      <c r="J6" t="s">
-        <v>75</v>
+      <c r="J6" t="n">
+        <v>336276</v>
       </c>
       <c r="K6" t="n">
         <v>3.43</v>
       </c>
-      <c r="L6" t="s">
-        <v>76</v>
+      <c r="L6" t="n">
+        <v>307428</v>
       </c>
       <c r="M6" t="n">
         <v>3.12</v>
       </c>
-      <c r="N6" t="s">
-        <v>77</v>
+      <c r="N6" t="n">
+        <v>154745</v>
       </c>
       <c r="O6" t="n">
         <v>1.7</v>
       </c>
-      <c r="P6" t="s">
-        <v>78</v>
+      <c r="P6" t="n">
+        <v>228096</v>
       </c>
       <c r="Q6" t="n">
         <v>2.46</v>
       </c>
-      <c r="R6" t="s">
-        <v>79</v>
+      <c r="R6" t="n">
+        <v>262773</v>
       </c>
       <c r="S6" t="n">
         <v>2.9</v>
       </c>
-      <c r="T6" t="s">
-        <v>80</v>
+      <c r="T6" t="n">
+        <v>238341</v>
       </c>
       <c r="U6" t="n">
         <v>2.64</v>
       </c>
-      <c r="V6" t="s">
-        <v>81</v>
+      <c r="V6" t="n">
+        <v>231930</v>
       </c>
       <c r="W6" t="n">
         <v>2.51</v>
       </c>
-      <c r="X6" t="s">
-        <v>82</v>
+      <c r="X6" t="n">
+        <v>120983</v>
       </c>
       <c r="Y6" t="n">
         <v>1.4</v>
       </c>
-      <c r="Z6" t="s">
-        <v>83</v>
+      <c r="Z6" t="n">
+        <v>228019</v>
       </c>
       <c r="AA6" t="n">
         <v>2.68</v>
       </c>
-      <c r="AB6" t="s">
-        <v>84</v>
+      <c r="AB6" t="n">
+        <v>182103</v>
       </c>
       <c r="AC6" t="n">
         <v>2.16</v>
       </c>
-      <c r="AD6" t="s">
-        <v>85</v>
+      <c r="AD6" t="n">
+        <v>176598</v>
       </c>
       <c r="AE6" t="n">
         <v>2.13</v>
       </c>
-      <c r="AF6" t="s">
-        <v>86</v>
+      <c r="AF6" t="n">
+        <v>414326</v>
       </c>
       <c r="AG6" t="n">
         <v>4.79</v>
@@ -3098,100 +1181,100 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>298182</v>
       </c>
       <c r="C7" t="n">
         <v>3.13</v>
       </c>
-      <c r="D7" t="s">
-        <v>89</v>
+      <c r="D7" t="n">
+        <v>298102</v>
       </c>
       <c r="E7" t="n">
         <v>3.08</v>
       </c>
-      <c r="F7" t="s">
-        <v>90</v>
+      <c r="F7" t="n">
+        <v>304045</v>
       </c>
       <c r="G7" t="n">
         <v>3.25</v>
       </c>
-      <c r="H7" t="s">
-        <v>91</v>
+      <c r="H7" t="n">
+        <v>306739</v>
       </c>
       <c r="I7" t="n">
         <v>3.13</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
+      <c r="J7" t="n">
+        <v>304531</v>
       </c>
       <c r="K7" t="n">
         <v>3.11</v>
       </c>
-      <c r="L7" t="s">
-        <v>93</v>
+      <c r="L7" t="n">
+        <v>291306</v>
       </c>
       <c r="M7" t="n">
         <v>2.96</v>
       </c>
-      <c r="N7" t="s">
-        <v>94</v>
+      <c r="N7" t="n">
+        <v>265472</v>
       </c>
       <c r="O7" t="n">
         <v>2.92</v>
       </c>
-      <c r="P7" t="s">
-        <v>95</v>
+      <c r="P7" t="n">
+        <v>260065</v>
       </c>
       <c r="Q7" t="n">
         <v>2.8</v>
       </c>
-      <c r="R7" t="s">
-        <v>96</v>
+      <c r="R7" t="n">
+        <v>259667</v>
       </c>
       <c r="S7" t="n">
         <v>2.86</v>
       </c>
-      <c r="T7" t="s">
-        <v>97</v>
+      <c r="T7" t="n">
+        <v>244156</v>
       </c>
       <c r="U7" t="n">
         <v>2.7</v>
       </c>
-      <c r="V7" t="s">
-        <v>98</v>
+      <c r="V7" t="n">
+        <v>253427</v>
       </c>
       <c r="W7" t="n">
         <v>2.74</v>
       </c>
-      <c r="X7" t="s">
-        <v>99</v>
+      <c r="X7" t="n">
+        <v>253035</v>
       </c>
       <c r="Y7" t="n">
         <v>2.93</v>
       </c>
-      <c r="Z7" t="s">
-        <v>100</v>
+      <c r="Z7" t="n">
+        <v>255001</v>
       </c>
       <c r="AA7" t="n">
         <v>3</v>
       </c>
-      <c r="AB7" t="s">
-        <v>101</v>
+      <c r="AB7" t="n">
+        <v>242811</v>
       </c>
       <c r="AC7" t="n">
         <v>2.88</v>
       </c>
-      <c r="AD7" t="s">
-        <v>102</v>
+      <c r="AD7" t="n">
+        <v>257151</v>
       </c>
       <c r="AE7" t="n">
         <v>3.09</v>
       </c>
-      <c r="AF7" t="s">
-        <v>103</v>
+      <c r="AF7" t="n">
+        <v>260720</v>
       </c>
       <c r="AG7" t="n">
         <v>3.02</v>
@@ -3199,100 +1282,100 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>408693</v>
       </c>
       <c r="C8" t="n">
         <v>4.29</v>
       </c>
-      <c r="D8" t="s">
-        <v>106</v>
+      <c r="D8" t="n">
+        <v>534231</v>
       </c>
       <c r="E8" t="n">
         <v>5.52</v>
       </c>
-      <c r="F8" t="s">
-        <v>107</v>
+      <c r="F8" t="n">
+        <v>399873</v>
       </c>
       <c r="G8" t="n">
         <v>4.27</v>
       </c>
-      <c r="H8" t="s">
-        <v>108</v>
+      <c r="H8" t="n">
+        <v>407676</v>
       </c>
       <c r="I8" t="n">
         <v>4.16</v>
       </c>
-      <c r="J8" t="s">
-        <v>109</v>
+      <c r="J8" t="n">
+        <v>390774</v>
       </c>
       <c r="K8" t="n">
         <v>3.99</v>
       </c>
-      <c r="L8" t="s">
-        <v>110</v>
+      <c r="L8" t="n">
+        <v>867231</v>
       </c>
       <c r="M8" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="N8" t="s">
-        <v>111</v>
+      <c r="N8" t="n">
+        <v>326983</v>
       </c>
       <c r="O8" t="n">
         <v>3.59</v>
       </c>
-      <c r="P8" t="s">
-        <v>112</v>
+      <c r="P8" t="n">
+        <v>381153</v>
       </c>
       <c r="Q8" t="n">
         <v>4.11</v>
       </c>
-      <c r="R8" t="s">
-        <v>113</v>
+      <c r="R8" t="n">
+        <v>297976</v>
       </c>
       <c r="S8" t="n">
         <v>3.29</v>
       </c>
-      <c r="T8" t="s">
-        <v>114</v>
+      <c r="T8" t="n">
+        <v>374865</v>
       </c>
       <c r="U8" t="n">
         <v>4.15</v>
       </c>
-      <c r="V8" t="s">
-        <v>115</v>
+      <c r="V8" t="n">
+        <v>773463</v>
       </c>
       <c r="W8" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="X8" t="s">
-        <v>116</v>
+      <c r="X8" t="n">
+        <v>326624</v>
       </c>
       <c r="Y8" t="n">
         <v>3.78</v>
       </c>
-      <c r="Z8" t="s">
-        <v>117</v>
+      <c r="Z8" t="n">
+        <v>270734</v>
       </c>
       <c r="AA8" t="n">
         <v>3.18</v>
       </c>
-      <c r="AB8" t="s">
-        <v>118</v>
+      <c r="AB8" t="n">
+        <v>339085</v>
       </c>
       <c r="AC8" t="n">
         <v>4.02</v>
       </c>
-      <c r="AD8" t="s">
-        <v>119</v>
+      <c r="AD8" t="n">
+        <v>241605</v>
       </c>
       <c r="AE8" t="n">
         <v>2.91</v>
       </c>
-      <c r="AF8" t="s">
-        <v>120</v>
+      <c r="AF8" t="n">
+        <v>287266</v>
       </c>
       <c r="AG8" t="n">
         <v>3.32</v>
@@ -3300,100 +1383,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>98364</v>
       </c>
       <c r="C9" t="n">
         <v>1.03</v>
       </c>
-      <c r="D9" t="s">
-        <v>123</v>
+      <c r="D9" t="n">
+        <v>18514</v>
       </c>
       <c r="E9" t="n">
         <v>0.19</v>
       </c>
-      <c r="F9" t="s">
-        <v>124</v>
+      <c r="F9" t="n">
+        <v>29542</v>
       </c>
       <c r="G9" t="n">
         <v>0.32</v>
       </c>
-      <c r="H9" t="s">
-        <v>125</v>
+      <c r="H9" t="n">
+        <v>49765</v>
       </c>
       <c r="I9" t="n">
         <v>0.51</v>
       </c>
-      <c r="J9" t="s">
-        <v>126</v>
+      <c r="J9" t="n">
+        <v>8170</v>
       </c>
       <c r="K9" t="n">
         <v>0.08</v>
       </c>
-      <c r="L9" t="s">
-        <v>127</v>
+      <c r="L9" t="n">
+        <v>6628</v>
       </c>
       <c r="M9" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N9" t="s">
-        <v>128</v>
+      <c r="N9" t="n">
+        <v>24651</v>
       </c>
       <c r="O9" t="n">
         <v>0.27</v>
       </c>
-      <c r="P9" t="s">
-        <v>129</v>
+      <c r="P9" t="n">
+        <v>22395</v>
       </c>
       <c r="Q9" t="n">
         <v>0.24</v>
       </c>
-      <c r="R9" t="s">
-        <v>130</v>
+      <c r="R9" t="n">
+        <v>6645</v>
       </c>
       <c r="S9" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T9" t="s">
-        <v>131</v>
+      <c r="T9" t="n">
+        <v>8444</v>
       </c>
       <c r="U9" t="n">
         <v>0.09</v>
       </c>
-      <c r="V9" t="s">
-        <v>132</v>
+      <c r="V9" t="n">
+        <v>9553</v>
       </c>
       <c r="W9" t="n">
         <v>0.1</v>
       </c>
-      <c r="X9" t="s">
-        <v>133</v>
+      <c r="X9" t="n">
+        <v>9391</v>
       </c>
       <c r="Y9" t="n">
         <v>0.11</v>
       </c>
-      <c r="Z9" t="s">
-        <v>134</v>
+      <c r="Z9" t="n">
+        <v>6563</v>
       </c>
       <c r="AA9" t="n">
         <v>0.08</v>
       </c>
-      <c r="AB9" t="s">
-        <v>135</v>
+      <c r="AB9" t="n">
+        <v>9151</v>
       </c>
       <c r="AC9" t="n">
         <v>0.11</v>
       </c>
-      <c r="AD9" t="s">
-        <v>136</v>
+      <c r="AD9" t="n">
+        <v>4115</v>
       </c>
       <c r="AE9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF9" t="s">
-        <v>137</v>
+      <c r="AF9" t="n">
+        <v>7221</v>
       </c>
       <c r="AG9" t="n">
         <v>0.08</v>
@@ -3401,100 +1484,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>75647</v>
       </c>
       <c r="C10" t="n">
         <v>0.79</v>
       </c>
-      <c r="D10" t="s">
-        <v>140</v>
+      <c r="D10" t="n">
+        <v>94198</v>
       </c>
       <c r="E10" t="n">
         <v>0.97</v>
       </c>
-      <c r="F10" t="s">
-        <v>141</v>
+      <c r="F10" t="n">
+        <v>82214</v>
       </c>
       <c r="G10" t="n">
         <v>0.88</v>
       </c>
-      <c r="H10" t="s">
-        <v>142</v>
+      <c r="H10" t="n">
+        <v>119409</v>
       </c>
       <c r="I10" t="n">
         <v>1.22</v>
       </c>
-      <c r="J10" t="s">
-        <v>143</v>
+      <c r="J10" t="n">
+        <v>112571</v>
       </c>
       <c r="K10" t="n">
         <v>1.15</v>
       </c>
-      <c r="L10" t="s">
-        <v>144</v>
+      <c r="L10" t="n">
+        <v>67801</v>
       </c>
       <c r="M10" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="N10" t="s">
-        <v>145</v>
+      <c r="N10" t="n">
+        <v>120068</v>
       </c>
       <c r="O10" t="n">
         <v>1.32</v>
       </c>
-      <c r="P10" t="s">
-        <v>146</v>
+      <c r="P10" t="n">
+        <v>167234</v>
       </c>
       <c r="Q10" t="n">
         <v>1.8</v>
       </c>
-      <c r="R10" t="s">
-        <v>147</v>
+      <c r="R10" t="n">
+        <v>149762</v>
       </c>
       <c r="S10" t="n">
         <v>1.65</v>
       </c>
-      <c r="T10" t="s">
-        <v>148</v>
+      <c r="T10" t="n">
+        <v>115954</v>
       </c>
       <c r="U10" t="n">
         <v>1.28</v>
       </c>
-      <c r="V10" t="s">
-        <v>149</v>
+      <c r="V10" t="n">
+        <v>180968</v>
       </c>
       <c r="W10" t="n">
         <v>1.96</v>
       </c>
-      <c r="X10" t="s">
-        <v>150</v>
+      <c r="X10" t="n">
+        <v>119858</v>
       </c>
       <c r="Y10" t="n">
         <v>1.39</v>
       </c>
-      <c r="Z10" t="s">
-        <v>151</v>
+      <c r="Z10" t="n">
+        <v>122286</v>
       </c>
       <c r="AA10" t="n">
         <v>1.44</v>
       </c>
-      <c r="AB10" t="s">
-        <v>152</v>
+      <c r="AB10" t="n">
+        <v>68200</v>
       </c>
       <c r="AC10" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AD10" t="s">
-        <v>153</v>
+      <c r="AD10" t="n">
+        <v>45594</v>
       </c>
       <c r="AE10" t="n">
         <v>0.55</v>
       </c>
-      <c r="AF10" t="s">
-        <v>154</v>
+      <c r="AF10" t="n">
+        <v>27667</v>
       </c>
       <c r="AG10" t="n">
         <v>0.32</v>
@@ -3502,100 +1585,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>156</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>336442</v>
       </c>
       <c r="C11" t="n">
         <v>3.53</v>
       </c>
-      <c r="D11" t="s">
-        <v>157</v>
+      <c r="D11" t="n">
+        <v>347799</v>
       </c>
       <c r="E11" t="n">
         <v>3.6</v>
       </c>
-      <c r="F11" t="s">
-        <v>158</v>
+      <c r="F11" t="n">
+        <v>359930</v>
       </c>
       <c r="G11" t="n">
         <v>3.84</v>
       </c>
-      <c r="H11" t="s">
-        <v>159</v>
+      <c r="H11" t="n">
+        <v>349969</v>
       </c>
       <c r="I11" t="n">
         <v>3.58</v>
       </c>
-      <c r="J11" t="s">
-        <v>160</v>
+      <c r="J11" t="n">
+        <v>422427</v>
       </c>
       <c r="K11" t="n">
         <v>4.31</v>
       </c>
-      <c r="L11" t="s">
-        <v>161</v>
+      <c r="L11" t="n">
+        <v>422308</v>
       </c>
       <c r="M11" t="n">
         <v>4.29</v>
       </c>
-      <c r="N11" t="s">
-        <v>162</v>
+      <c r="N11" t="n">
+        <v>1001698</v>
       </c>
       <c r="O11" t="n">
         <v>11</v>
       </c>
-      <c r="P11" t="s">
-        <v>163</v>
+      <c r="P11" t="n">
+        <v>989903</v>
       </c>
       <c r="Q11" t="n">
         <v>10.66</v>
       </c>
-      <c r="R11" t="s">
-        <v>164</v>
+      <c r="R11" t="n">
+        <v>55441</v>
       </c>
       <c r="S11" t="n">
         <v>0.61</v>
       </c>
-      <c r="T11" t="s">
-        <v>165</v>
+      <c r="T11" t="n">
+        <v>59825</v>
       </c>
       <c r="U11" t="n">
         <v>0.66</v>
       </c>
-      <c r="V11" t="s">
-        <v>166</v>
+      <c r="V11" t="n">
+        <v>58362</v>
       </c>
       <c r="W11" t="n">
         <v>0.63</v>
       </c>
-      <c r="X11" t="s">
-        <v>167</v>
+      <c r="X11" t="n">
+        <v>47102</v>
       </c>
       <c r="Y11" t="n">
         <v>0.55</v>
       </c>
-      <c r="Z11" t="s">
-        <v>168</v>
+      <c r="Z11" t="n">
+        <v>161115</v>
       </c>
       <c r="AA11" t="n">
         <v>1.89</v>
       </c>
-      <c r="AB11" t="s">
-        <v>169</v>
+      <c r="AB11" t="n">
+        <v>149494</v>
       </c>
       <c r="AC11" t="n">
         <v>1.77</v>
       </c>
-      <c r="AD11" t="s">
-        <v>170</v>
+      <c r="AD11" t="n">
+        <v>261382</v>
       </c>
       <c r="AE11" t="n">
         <v>3.15</v>
       </c>
-      <c r="AF11" t="s">
-        <v>171</v>
+      <c r="AF11" t="n">
+        <v>259309</v>
       </c>
       <c r="AG11" t="n">
         <v>3</v>
@@ -3603,100 +1686,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>39884</v>
       </c>
       <c r="C12" t="n">
         <v>0.42</v>
       </c>
-      <c r="D12" t="s">
-        <v>174</v>
+      <c r="D12" t="n">
+        <v>56161</v>
       </c>
       <c r="E12" t="n">
         <v>0.58</v>
       </c>
-      <c r="F12" t="s">
-        <v>175</v>
+      <c r="F12" t="n">
+        <v>58579</v>
       </c>
       <c r="G12" t="n">
         <v>0.63</v>
       </c>
-      <c r="H12" t="s">
-        <v>176</v>
+      <c r="H12" t="n">
+        <v>34738</v>
       </c>
       <c r="I12" t="n">
         <v>0.35</v>
       </c>
-      <c r="J12" t="s">
-        <v>177</v>
+      <c r="J12" t="n">
+        <v>43210</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
       </c>
-      <c r="L12" t="s">
-        <v>178</v>
+      <c r="L12" t="n">
+        <v>29998</v>
       </c>
       <c r="M12" t="n">
         <v>0.3</v>
       </c>
-      <c r="N12" t="s">
-        <v>179</v>
+      <c r="N12" t="n">
+        <v>28318</v>
       </c>
       <c r="O12" t="n">
         <v>0.31</v>
       </c>
-      <c r="P12" t="s">
-        <v>180</v>
+      <c r="P12" t="n">
+        <v>28097</v>
       </c>
       <c r="Q12" t="n">
         <v>0.3</v>
       </c>
-      <c r="R12" t="s">
-        <v>181</v>
+      <c r="R12" t="n">
+        <v>28333</v>
       </c>
       <c r="S12" t="n">
         <v>0.31</v>
       </c>
-      <c r="T12" t="s">
-        <v>182</v>
+      <c r="T12" t="n">
+        <v>33130</v>
       </c>
       <c r="U12" t="n">
         <v>0.37</v>
       </c>
-      <c r="V12" t="s">
-        <v>183</v>
+      <c r="V12" t="n">
+        <v>34861</v>
       </c>
       <c r="W12" t="n">
         <v>0.38</v>
       </c>
-      <c r="X12" t="s">
-        <v>184</v>
+      <c r="X12" t="n">
+        <v>80992</v>
       </c>
       <c r="Y12" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Z12" t="s">
-        <v>185</v>
+      <c r="Z12" t="n">
+        <v>80979</v>
       </c>
       <c r="AA12" t="n">
         <v>0.95</v>
       </c>
-      <c r="AB12" t="s">
-        <v>186</v>
+      <c r="AB12" t="n">
+        <v>80977</v>
       </c>
       <c r="AC12" t="n">
         <v>0.96</v>
       </c>
-      <c r="AD12" t="s">
-        <v>187</v>
+      <c r="AD12" t="n">
+        <v>85670</v>
       </c>
       <c r="AE12" t="n">
         <v>1.03</v>
       </c>
-      <c r="AF12" t="s">
-        <v>188</v>
+      <c r="AF12" t="n">
+        <v>92698</v>
       </c>
       <c r="AG12" t="n">
         <v>1.07</v>
@@ -3704,100 +1787,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>190</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>352803</v>
       </c>
       <c r="C13" t="n">
         <v>3.7</v>
       </c>
-      <c r="D13" t="s">
-        <v>191</v>
+      <c r="D13" t="n">
+        <v>380530</v>
       </c>
       <c r="E13" t="n">
         <v>3.93</v>
       </c>
-      <c r="F13" t="s">
-        <v>192</v>
+      <c r="F13" t="n">
+        <v>350478</v>
       </c>
       <c r="G13" t="n">
         <v>3.74</v>
       </c>
-      <c r="H13" t="s">
-        <v>193</v>
+      <c r="H13" t="n">
+        <v>413927</v>
       </c>
       <c r="I13" t="n">
         <v>4.23</v>
       </c>
-      <c r="J13" t="s">
-        <v>194</v>
+      <c r="J13" t="n">
+        <v>415794</v>
       </c>
       <c r="K13" t="n">
         <v>4.24</v>
       </c>
-      <c r="L13" t="s">
-        <v>195</v>
+      <c r="L13" t="n">
+        <v>393671</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="N13" t="s">
-        <v>196</v>
+      <c r="N13" t="n">
+        <v>369005</v>
       </c>
       <c r="O13" t="n">
         <v>4.05</v>
       </c>
-      <c r="P13" t="s">
-        <v>197</v>
+      <c r="P13" t="n">
+        <v>404050</v>
       </c>
       <c r="Q13" t="n">
         <v>4.35</v>
       </c>
-      <c r="R13" t="s">
-        <v>198</v>
+      <c r="R13" t="n">
+        <v>361315</v>
       </c>
       <c r="S13" t="n">
         <v>3.99</v>
       </c>
-      <c r="T13" t="s">
-        <v>199</v>
+      <c r="T13" t="n">
+        <v>331785</v>
       </c>
       <c r="U13" t="n">
         <v>3.67</v>
       </c>
-      <c r="V13" t="s">
-        <v>200</v>
+      <c r="V13" t="n">
+        <v>305717</v>
       </c>
       <c r="W13" t="n">
         <v>3.3</v>
       </c>
-      <c r="X13" t="s">
-        <v>201</v>
+      <c r="X13" t="n">
+        <v>323089</v>
       </c>
       <c r="Y13" t="n">
         <v>3.74</v>
       </c>
-      <c r="Z13" t="s">
-        <v>202</v>
+      <c r="Z13" t="n">
+        <v>306722</v>
       </c>
       <c r="AA13" t="n">
         <v>3.61</v>
       </c>
-      <c r="AB13" t="s">
-        <v>203</v>
+      <c r="AB13" t="n">
+        <v>309890</v>
       </c>
       <c r="AC13" t="n">
         <v>3.67</v>
       </c>
-      <c r="AD13" t="s">
-        <v>204</v>
+      <c r="AD13" t="n">
+        <v>301154</v>
       </c>
       <c r="AE13" t="n">
         <v>3.62</v>
       </c>
-      <c r="AF13" t="s">
-        <v>205</v>
+      <c r="AF13" t="n">
+        <v>303101</v>
       </c>
       <c r="AG13" t="n">
         <v>3.51</v>
@@ -3805,100 +1888,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>207</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>322107</v>
       </c>
       <c r="C14" t="n">
         <v>3.38</v>
       </c>
-      <c r="D14" t="s">
-        <v>208</v>
+      <c r="D14" t="n">
+        <v>325380</v>
       </c>
       <c r="E14" t="n">
         <v>3.36</v>
       </c>
-      <c r="F14" t="s">
-        <v>209</v>
+      <c r="F14" t="n">
+        <v>344566</v>
       </c>
       <c r="G14" t="n">
         <v>3.68</v>
       </c>
-      <c r="H14" t="s">
-        <v>210</v>
+      <c r="H14" t="n">
+        <v>394548</v>
       </c>
       <c r="I14" t="n">
         <v>4.03</v>
       </c>
-      <c r="J14" t="s">
-        <v>211</v>
+      <c r="J14" t="n">
+        <v>371965</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
       </c>
-      <c r="L14" t="s">
-        <v>212</v>
+      <c r="L14" t="n">
+        <v>344759</v>
       </c>
       <c r="M14" t="n">
         <v>3.5</v>
       </c>
-      <c r="N14" t="s">
-        <v>213</v>
+      <c r="N14" t="n">
+        <v>348301</v>
       </c>
       <c r="O14" t="n">
         <v>3.83</v>
       </c>
-      <c r="P14" t="s">
-        <v>214</v>
+      <c r="P14" t="n">
+        <v>368075</v>
       </c>
       <c r="Q14" t="n">
         <v>3.96</v>
       </c>
-      <c r="R14" t="s">
-        <v>215</v>
+      <c r="R14" t="n">
+        <v>370407</v>
       </c>
       <c r="S14" t="n">
         <v>4.09</v>
       </c>
-      <c r="T14" t="s">
-        <v>216</v>
+      <c r="T14" t="n">
+        <v>345876</v>
       </c>
       <c r="U14" t="n">
         <v>3.83</v>
       </c>
-      <c r="V14" t="s">
-        <v>217</v>
+      <c r="V14" t="n">
+        <v>352561</v>
       </c>
       <c r="W14" t="n">
         <v>3.81</v>
       </c>
-      <c r="X14" t="s">
-        <v>218</v>
+      <c r="X14" t="n">
+        <v>328824</v>
       </c>
       <c r="Y14" t="n">
         <v>3.81</v>
       </c>
-      <c r="Z14" t="s">
-        <v>219</v>
+      <c r="Z14" t="n">
+        <v>326385</v>
       </c>
       <c r="AA14" t="n">
         <v>3.84</v>
       </c>
-      <c r="AB14" t="s">
-        <v>220</v>
+      <c r="AB14" t="n">
+        <v>320038</v>
       </c>
       <c r="AC14" t="n">
         <v>3.79</v>
       </c>
-      <c r="AD14" t="s">
-        <v>221</v>
+      <c r="AD14" t="n">
+        <v>308033</v>
       </c>
       <c r="AE14" t="n">
         <v>3.71</v>
       </c>
-      <c r="AF14" t="s">
-        <v>222</v>
+      <c r="AF14" t="n">
+        <v>310353</v>
       </c>
       <c r="AG14" t="n">
         <v>3.59</v>
@@ -3906,10 +1989,10 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" t="s">
-        <v>224</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1458</v>
       </c>
       <c r="C15" t="n">
         <v>-0.02</v>
@@ -3947,100 +2030,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" t="s">
-        <v>226</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>807388</v>
       </c>
       <c r="C16" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="D16" t="s">
-        <v>227</v>
+      <c r="D16" t="n">
+        <v>925850</v>
       </c>
       <c r="E16" t="n">
         <v>9.57</v>
       </c>
-      <c r="F16" t="s">
-        <v>228</v>
+      <c r="F16" t="n">
+        <v>835700</v>
       </c>
       <c r="G16" t="n">
         <v>8.92</v>
       </c>
-      <c r="H16" t="s">
-        <v>229</v>
+      <c r="H16" t="n">
+        <v>792637</v>
       </c>
       <c r="I16" t="n">
         <v>8.1</v>
       </c>
-      <c r="J16" t="s">
-        <v>230</v>
+      <c r="J16" t="n">
+        <v>851995</v>
       </c>
       <c r="K16" t="n">
         <v>8.69</v>
       </c>
-      <c r="L16" t="s">
-        <v>231</v>
+      <c r="L16" t="n">
+        <v>841059</v>
       </c>
       <c r="M16" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="N16" t="s">
-        <v>232</v>
+      <c r="N16" t="n">
+        <v>917070</v>
       </c>
       <c r="O16" t="n">
         <v>10.07</v>
       </c>
-      <c r="P16" t="s">
-        <v>233</v>
+      <c r="P16" t="n">
+        <v>848020</v>
       </c>
       <c r="Q16" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="R16" t="s">
-        <v>234</v>
+      <c r="R16" t="n">
+        <v>879860</v>
       </c>
       <c r="S16" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="T16" t="s">
-        <v>235</v>
+      <c r="T16" t="n">
+        <v>844869</v>
       </c>
       <c r="U16" t="n">
         <v>9.35</v>
       </c>
-      <c r="V16" t="s">
-        <v>236</v>
+      <c r="V16" t="n">
+        <v>874743</v>
       </c>
       <c r="W16" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="X16" t="s">
-        <v>237</v>
+      <c r="X16" t="n">
+        <v>806322</v>
       </c>
       <c r="Y16" t="n">
         <v>9.34</v>
       </c>
-      <c r="Z16" t="s">
-        <v>238</v>
+      <c r="Z16" t="n">
+        <v>791727</v>
       </c>
       <c r="AA16" t="n">
         <v>9.31</v>
       </c>
-      <c r="AB16" t="s">
-        <v>239</v>
+      <c r="AB16" t="n">
+        <v>816882</v>
       </c>
       <c r="AC16" t="n">
         <v>9.68</v>
       </c>
-      <c r="AD16" t="s">
-        <v>240</v>
+      <c r="AD16" t="n">
+        <v>776263</v>
       </c>
       <c r="AE16" t="n">
         <v>9.34</v>
       </c>
-      <c r="AF16" t="s">
-        <v>241</v>
+      <c r="AF16" t="n">
+        <v>855818</v>
       </c>
       <c r="AG16" t="n">
         <v>9.9</v>
@@ -4048,100 +2131,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>50</v>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>50</v>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>50</v>
+      <c r="H17" t="n">
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>50</v>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
-        <v>50</v>
+      <c r="L17" t="n">
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="s">
-        <v>50</v>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
-        <v>50</v>
+      <c r="P17" t="n">
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
-        <v>50</v>
+      <c r="R17" t="n">
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
-      <c r="T17" t="s">
-        <v>50</v>
+      <c r="T17" t="n">
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="s">
-        <v>50</v>
+      <c r="V17" t="n">
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>50</v>
+      <c r="X17" t="n">
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" t="s">
-        <v>50</v>
+      <c r="Z17" t="n">
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" t="s">
-        <v>50</v>
+      <c r="AB17" t="n">
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
-      <c r="AD17" t="s">
-        <v>50</v>
+      <c r="AD17" t="n">
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
-      <c r="AF17" t="s">
-        <v>50</v>
+      <c r="AF17" t="n">
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -4149,7 +2232,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s"/>
       <c r="C18" t="s"/>
@@ -4159,151 +2242,151 @@
       <c r="G18" t="s"/>
       <c r="H18" t="s"/>
       <c r="I18" t="s"/>
-      <c r="J18" t="s">
-        <v>50</v>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
       <c r="K18" t="s"/>
-      <c r="L18" t="s">
-        <v>50</v>
+      <c r="L18" t="n">
+        <v>0</v>
       </c>
       <c r="M18" t="s"/>
-      <c r="N18" t="s">
-        <v>50</v>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
       <c r="O18" t="s"/>
-      <c r="P18" t="s">
-        <v>50</v>
+      <c r="P18" t="n">
+        <v>0</v>
       </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s">
-        <v>50</v>
+      <c r="R18" t="n">
+        <v>0</v>
       </c>
       <c r="S18" t="s"/>
-      <c r="T18" t="s">
-        <v>50</v>
+      <c r="T18" t="n">
+        <v>0</v>
       </c>
       <c r="U18" t="s"/>
-      <c r="V18" t="s">
-        <v>50</v>
+      <c r="V18" t="n">
+        <v>0</v>
       </c>
       <c r="W18" t="s"/>
-      <c r="X18" t="s">
-        <v>50</v>
+      <c r="X18" t="n">
+        <v>0</v>
       </c>
       <c r="Y18" t="s"/>
-      <c r="Z18" t="s">
-        <v>50</v>
+      <c r="Z18" t="n">
+        <v>0</v>
       </c>
       <c r="AA18" t="s"/>
-      <c r="AB18" t="s">
-        <v>50</v>
+      <c r="AB18" t="n">
+        <v>0</v>
       </c>
       <c r="AC18" t="s"/>
-      <c r="AD18" t="s">
-        <v>50</v>
+      <c r="AD18" t="n">
+        <v>0</v>
       </c>
       <c r="AE18" t="s"/>
-      <c r="AF18" t="s">
-        <v>50</v>
+      <c r="AF18" t="n">
+        <v>0</v>
       </c>
       <c r="AG18" t="s"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" t="s">
-        <v>245</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>275665</v>
       </c>
       <c r="C19" t="n">
         <v>2.89</v>
       </c>
-      <c r="D19" t="s">
-        <v>246</v>
+      <c r="D19" t="n">
+        <v>296371</v>
       </c>
       <c r="E19" t="n">
         <v>3.06</v>
       </c>
-      <c r="F19" t="s">
-        <v>247</v>
+      <c r="F19" t="n">
+        <v>320109</v>
       </c>
       <c r="G19" t="n">
         <v>3.42</v>
       </c>
-      <c r="H19" t="s">
-        <v>248</v>
+      <c r="H19" t="n">
+        <v>276075</v>
       </c>
       <c r="I19" t="n">
         <v>2.82</v>
       </c>
-      <c r="J19" t="s">
-        <v>249</v>
+      <c r="J19" t="n">
+        <v>249230</v>
       </c>
       <c r="K19" t="n">
         <v>2.54</v>
       </c>
-      <c r="L19" t="s">
-        <v>250</v>
+      <c r="L19" t="n">
+        <v>276027</v>
       </c>
       <c r="M19" t="n">
         <v>2.8</v>
       </c>
-      <c r="N19" t="s">
-        <v>251</v>
+      <c r="N19" t="n">
+        <v>164861</v>
       </c>
       <c r="O19" t="n">
         <v>1.81</v>
       </c>
-      <c r="P19" t="s">
-        <v>252</v>
+      <c r="P19" t="n">
+        <v>145134</v>
       </c>
       <c r="Q19" t="n">
         <v>1.56</v>
       </c>
-      <c r="R19" t="s">
-        <v>253</v>
+      <c r="R19" t="n">
+        <v>124879</v>
       </c>
       <c r="S19" t="n">
         <v>1.38</v>
       </c>
-      <c r="T19" t="s">
-        <v>254</v>
+      <c r="T19" t="n">
+        <v>194329</v>
       </c>
       <c r="U19" t="n">
         <v>2.15</v>
       </c>
-      <c r="V19" t="s">
-        <v>255</v>
+      <c r="V19" t="n">
+        <v>319965</v>
       </c>
       <c r="W19" t="n">
         <v>3.46</v>
       </c>
-      <c r="X19" t="s">
-        <v>256</v>
+      <c r="X19" t="n">
+        <v>193929</v>
       </c>
       <c r="Y19" t="n">
         <v>2.25</v>
       </c>
-      <c r="Z19" t="s">
-        <v>257</v>
+      <c r="Z19" t="n">
+        <v>163993</v>
       </c>
       <c r="AA19" t="n">
         <v>1.93</v>
       </c>
-      <c r="AB19" t="s">
-        <v>258</v>
+      <c r="AB19" t="n">
+        <v>137747</v>
       </c>
       <c r="AC19" t="n">
         <v>1.63</v>
       </c>
-      <c r="AD19" t="s">
-        <v>259</v>
+      <c r="AD19" t="n">
+        <v>157854</v>
       </c>
       <c r="AE19" t="n">
         <v>1.9</v>
       </c>
-      <c r="AF19" t="s">
-        <v>260</v>
+      <c r="AF19" t="n">
+        <v>304882</v>
       </c>
       <c r="AG19" t="n">
         <v>3.53</v>
@@ -4311,16 +2394,16 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" t="s">
-        <v>262</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2764</v>
       </c>
       <c r="C20" t="n">
         <v>0.03</v>
       </c>
-      <c r="D20" t="s">
-        <v>263</v>
+      <c r="D20" t="n">
+        <v>2811</v>
       </c>
       <c r="E20" t="n">
         <v>0.03</v>
@@ -4329,8 +2412,8 @@
       <c r="G20" t="s"/>
       <c r="H20" t="s"/>
       <c r="I20" t="s"/>
-      <c r="J20" t="s">
-        <v>50</v>
+      <c r="J20" t="n">
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -4339,50 +2422,50 @@
       <c r="M20" t="s"/>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
-      <c r="P20" t="s">
-        <v>264</v>
+      <c r="P20" t="n">
+        <v>737</v>
       </c>
       <c r="Q20" t="n">
         <v>0.01</v>
       </c>
-      <c r="R20" t="s">
-        <v>265</v>
+      <c r="R20" t="n">
+        <v>454</v>
       </c>
       <c r="S20" t="n">
         <v>0.01</v>
       </c>
-      <c r="T20" t="s">
-        <v>266</v>
+      <c r="T20" t="n">
+        <v>503</v>
       </c>
       <c r="U20" t="n">
         <v>0.01</v>
       </c>
-      <c r="V20" t="s">
-        <v>267</v>
+      <c r="V20" t="n">
+        <v>367</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
-        <v>50</v>
+      <c r="X20" t="n">
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" t="s">
-        <v>50</v>
+      <c r="Z20" t="n">
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
-      <c r="AB20" t="s">
-        <v>50</v>
+      <c r="AB20" t="n">
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" t="s">
-        <v>50</v>
+      <c r="AD20" t="n">
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -4392,100 +2475,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" t="s">
-        <v>269</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>81623</v>
       </c>
       <c r="C21" t="n">
         <v>0.86</v>
       </c>
-      <c r="D21" t="s">
-        <v>270</v>
+      <c r="D21" t="n">
+        <v>97762</v>
       </c>
       <c r="E21" t="n">
         <v>1.01</v>
       </c>
-      <c r="F21" t="s">
-        <v>271</v>
+      <c r="F21" t="n">
+        <v>93881</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>272</v>
+      <c r="H21" t="n">
+        <v>126078</v>
       </c>
       <c r="I21" t="n">
         <v>1.29</v>
       </c>
-      <c r="J21" t="s">
-        <v>273</v>
+      <c r="J21" t="n">
+        <v>102835</v>
       </c>
       <c r="K21" t="n">
         <v>1.05</v>
       </c>
-      <c r="L21" t="s">
-        <v>274</v>
+      <c r="L21" t="n">
+        <v>90691</v>
       </c>
       <c r="M21" t="n">
         <v>0.92</v>
       </c>
-      <c r="N21" t="s">
-        <v>275</v>
+      <c r="N21" t="n">
+        <v>111805</v>
       </c>
       <c r="O21" t="n">
         <v>1.23</v>
       </c>
-      <c r="P21" t="s">
-        <v>276</v>
+      <c r="P21" t="n">
+        <v>117669</v>
       </c>
       <c r="Q21" t="n">
         <v>1.27</v>
       </c>
-      <c r="R21" t="s">
-        <v>277</v>
+      <c r="R21" t="n">
+        <v>71150</v>
       </c>
       <c r="S21" t="n">
         <v>0.78</v>
       </c>
-      <c r="T21" t="s">
-        <v>278</v>
+      <c r="T21" t="n">
+        <v>91055</v>
       </c>
       <c r="U21" t="n">
         <v>1.01</v>
       </c>
-      <c r="V21" t="s">
-        <v>279</v>
+      <c r="V21" t="n">
+        <v>137037</v>
       </c>
       <c r="W21" t="n">
         <v>1.48</v>
       </c>
-      <c r="X21" t="s">
-        <v>280</v>
+      <c r="X21" t="n">
+        <v>87694</v>
       </c>
       <c r="Y21" t="n">
         <v>1.02</v>
       </c>
-      <c r="Z21" t="s">
-        <v>281</v>
+      <c r="Z21" t="n">
+        <v>84222</v>
       </c>
       <c r="AA21" t="n">
         <v>0.99</v>
       </c>
-      <c r="AB21" t="s">
-        <v>282</v>
+      <c r="AB21" t="n">
+        <v>88044</v>
       </c>
       <c r="AC21" t="n">
         <v>1.04</v>
       </c>
-      <c r="AD21" t="s">
-        <v>283</v>
+      <c r="AD21" t="n">
+        <v>83397</v>
       </c>
       <c r="AE21" t="n">
         <v>1</v>
       </c>
-      <c r="AF21" t="s">
-        <v>284</v>
+      <c r="AF21" t="n">
+        <v>97596</v>
       </c>
       <c r="AG21" t="n">
         <v>1.13</v>
@@ -4493,100 +2576,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" t="s">
-        <v>286</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>555</v>
       </c>
       <c r="C22" t="n">
         <v>0.01</v>
       </c>
-      <c r="D22" t="s">
-        <v>287</v>
+      <c r="D22" t="n">
+        <v>1524</v>
       </c>
       <c r="E22" t="n">
         <v>0.02</v>
       </c>
-      <c r="F22" t="s">
-        <v>288</v>
+      <c r="F22" t="n">
+        <v>898</v>
       </c>
       <c r="G22" t="n">
         <v>0.01</v>
       </c>
-      <c r="H22" t="s">
-        <v>289</v>
+      <c r="H22" t="n">
+        <v>1064</v>
       </c>
       <c r="I22" t="n">
         <v>0.01</v>
       </c>
-      <c r="J22" t="s">
-        <v>290</v>
+      <c r="J22" t="n">
+        <v>610</v>
       </c>
       <c r="K22" t="n">
         <v>0.01</v>
       </c>
-      <c r="L22" t="s">
-        <v>291</v>
+      <c r="L22" t="n">
+        <v>1230</v>
       </c>
       <c r="M22" t="n">
         <v>0.01</v>
       </c>
-      <c r="N22" t="s">
-        <v>292</v>
+      <c r="N22" t="n">
+        <v>1029</v>
       </c>
       <c r="O22" t="n">
         <v>0.01</v>
       </c>
-      <c r="P22" t="s">
-        <v>293</v>
+      <c r="P22" t="n">
+        <v>986</v>
       </c>
       <c r="Q22" t="n">
         <v>0.01</v>
       </c>
-      <c r="R22" t="s">
-        <v>294</v>
+      <c r="R22" t="n">
+        <v>539</v>
       </c>
       <c r="S22" t="n">
         <v>0.01</v>
       </c>
-      <c r="T22" t="s">
-        <v>295</v>
+      <c r="T22" t="n">
+        <v>868</v>
       </c>
       <c r="U22" t="n">
         <v>0.01</v>
       </c>
-      <c r="V22" t="s">
-        <v>288</v>
+      <c r="V22" t="n">
+        <v>898</v>
       </c>
       <c r="W22" t="n">
         <v>0.01</v>
       </c>
-      <c r="X22" t="s">
-        <v>296</v>
+      <c r="X22" t="n">
+        <v>920</v>
       </c>
       <c r="Y22" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z22" t="s">
-        <v>297</v>
+      <c r="Z22" t="n">
+        <v>530</v>
       </c>
       <c r="AA22" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB22" t="s">
-        <v>298</v>
+      <c r="AB22" t="n">
+        <v>781</v>
       </c>
       <c r="AC22" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD22" t="s">
-        <v>299</v>
+      <c r="AD22" t="n">
+        <v>788</v>
       </c>
       <c r="AE22" t="n">
         <v>0.01</v>
       </c>
-      <c r="AF22" t="s">
-        <v>300</v>
+      <c r="AF22" t="n">
+        <v>648</v>
       </c>
       <c r="AG22" t="n">
         <v>0.01</v>
@@ -4594,100 +2677,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B23" t="s">
-        <v>302</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>251287</v>
       </c>
       <c r="C23" t="n">
         <v>2.64</v>
       </c>
-      <c r="D23" t="s">
-        <v>303</v>
+      <c r="D23" t="n">
+        <v>247682</v>
       </c>
       <c r="E23" t="n">
         <v>2.56</v>
       </c>
-      <c r="F23" t="s">
-        <v>304</v>
+      <c r="F23" t="n">
+        <v>235395</v>
       </c>
       <c r="G23" t="n">
         <v>2.51</v>
       </c>
-      <c r="H23" t="s">
-        <v>305</v>
+      <c r="H23" t="n">
+        <v>289974</v>
       </c>
       <c r="I23" t="n">
         <v>2.96</v>
       </c>
-      <c r="J23" t="s">
-        <v>306</v>
+      <c r="J23" t="n">
+        <v>280555</v>
       </c>
       <c r="K23" t="n">
         <v>2.86</v>
       </c>
-      <c r="L23" t="s">
-        <v>307</v>
+      <c r="L23" t="n">
+        <v>277289</v>
       </c>
       <c r="M23" t="n">
         <v>2.81</v>
       </c>
-      <c r="N23" t="s">
-        <v>308</v>
+      <c r="N23" t="n">
+        <v>293601</v>
       </c>
       <c r="O23" t="n">
         <v>3.23</v>
       </c>
-      <c r="P23" t="s">
-        <v>309</v>
+      <c r="P23" t="n">
+        <v>303183</v>
       </c>
       <c r="Q23" t="n">
         <v>3.27</v>
       </c>
-      <c r="R23" t="s">
-        <v>310</v>
+      <c r="R23" t="n">
+        <v>197497</v>
       </c>
       <c r="S23" t="n">
         <v>2.18</v>
       </c>
-      <c r="T23" t="s">
-        <v>311</v>
+      <c r="T23" t="n">
+        <v>213736</v>
       </c>
       <c r="U23" t="n">
         <v>2.37</v>
       </c>
-      <c r="V23" t="s">
-        <v>312</v>
+      <c r="V23" t="n">
+        <v>216592</v>
       </c>
       <c r="W23" t="n">
         <v>2.34</v>
       </c>
-      <c r="X23" t="s">
-        <v>313</v>
+      <c r="X23" t="n">
+        <v>233593</v>
       </c>
       <c r="Y23" t="n">
         <v>2.7</v>
       </c>
-      <c r="Z23" t="s">
-        <v>314</v>
+      <c r="Z23" t="n">
+        <v>195622</v>
       </c>
       <c r="AA23" t="n">
         <v>2.3</v>
       </c>
-      <c r="AB23" t="s">
-        <v>315</v>
+      <c r="AB23" t="n">
+        <v>197489</v>
       </c>
       <c r="AC23" t="n">
         <v>2.34</v>
       </c>
-      <c r="AD23" t="s">
-        <v>316</v>
+      <c r="AD23" t="n">
+        <v>155661</v>
       </c>
       <c r="AE23" t="n">
         <v>1.87</v>
       </c>
-      <c r="AF23" t="s">
-        <v>317</v>
+      <c r="AF23" t="n">
+        <v>173870</v>
       </c>
       <c r="AG23" t="n">
         <v>2.01</v>
@@ -4695,100 +2778,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>857</v>
       </c>
       <c r="C24" t="n">
         <v>0.01</v>
       </c>
-      <c r="D24" t="s">
-        <v>320</v>
+      <c r="D24" t="n">
+        <v>6374</v>
       </c>
       <c r="E24" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F24" t="s">
-        <v>321</v>
+      <c r="F24" t="n">
+        <v>8121</v>
       </c>
       <c r="G24" t="n">
         <v>0.09</v>
       </c>
-      <c r="H24" t="s">
-        <v>322</v>
+      <c r="H24" t="n">
+        <v>7328</v>
       </c>
       <c r="I24" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J24" t="s">
-        <v>323</v>
+      <c r="J24" t="n">
+        <v>5302</v>
       </c>
       <c r="K24" t="n">
         <v>0.05</v>
       </c>
-      <c r="L24" t="s">
-        <v>324</v>
+      <c r="L24" t="n">
+        <v>6461</v>
       </c>
       <c r="M24" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N24" t="s">
-        <v>325</v>
+      <c r="N24" t="n">
+        <v>4696</v>
       </c>
       <c r="O24" t="n">
         <v>0.05</v>
       </c>
-      <c r="P24" t="s">
-        <v>326</v>
+      <c r="P24" t="n">
+        <v>7020</v>
       </c>
       <c r="Q24" t="n">
         <v>0.08</v>
       </c>
-      <c r="R24" t="s">
-        <v>327</v>
+      <c r="R24" t="n">
+        <v>6955</v>
       </c>
       <c r="S24" t="n">
         <v>0.08</v>
       </c>
-      <c r="T24" t="s">
-        <v>328</v>
+      <c r="T24" t="n">
+        <v>7407</v>
       </c>
       <c r="U24" t="n">
         <v>0.08</v>
       </c>
-      <c r="V24" t="s">
-        <v>329</v>
+      <c r="V24" t="n">
+        <v>5269</v>
       </c>
       <c r="W24" t="n">
         <v>0.06</v>
       </c>
-      <c r="X24" t="s">
-        <v>330</v>
+      <c r="X24" t="n">
+        <v>5427</v>
       </c>
       <c r="Y24" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z24" t="s">
-        <v>331</v>
+      <c r="Z24" t="n">
+        <v>4865</v>
       </c>
       <c r="AA24" t="n">
         <v>0.06</v>
       </c>
-      <c r="AB24" t="s">
-        <v>332</v>
+      <c r="AB24" t="n">
+        <v>4741</v>
       </c>
       <c r="AC24" t="n">
         <v>0.06</v>
       </c>
-      <c r="AD24" t="s">
-        <v>333</v>
+      <c r="AD24" t="n">
+        <v>4592</v>
       </c>
       <c r="AE24" t="n">
         <v>0.06</v>
       </c>
-      <c r="AF24" t="s">
-        <v>334</v>
+      <c r="AF24" t="n">
+        <v>3903</v>
       </c>
       <c r="AG24" t="n">
         <v>0.05</v>
@@ -4796,100 +2879,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B25" t="s">
-        <v>336</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>196111</v>
       </c>
       <c r="C25" t="n">
         <v>2.06</v>
       </c>
-      <c r="D25" t="s">
-        <v>337</v>
+      <c r="D25" t="n">
+        <v>240175</v>
       </c>
       <c r="E25" t="n">
         <v>2.48</v>
       </c>
-      <c r="F25" t="s">
-        <v>338</v>
+      <c r="F25" t="n">
+        <v>316228</v>
       </c>
       <c r="G25" t="n">
         <v>3.38</v>
       </c>
-      <c r="H25" t="s">
-        <v>339</v>
+      <c r="H25" t="n">
+        <v>618542</v>
       </c>
       <c r="I25" t="n">
         <v>6.32</v>
       </c>
-      <c r="J25" t="s">
-        <v>340</v>
+      <c r="J25" t="n">
+        <v>637994</v>
       </c>
       <c r="K25" t="n">
         <v>6.51</v>
       </c>
-      <c r="L25" t="s">
-        <v>341</v>
+      <c r="L25" t="n">
+        <v>854726</v>
       </c>
       <c r="M25" t="n">
         <v>8.68</v>
       </c>
-      <c r="N25" t="s">
-        <v>342</v>
+      <c r="N25" t="n">
+        <v>402959</v>
       </c>
       <c r="O25" t="n">
         <v>4.43</v>
       </c>
-      <c r="P25" t="s">
-        <v>343</v>
+      <c r="P25" t="n">
+        <v>526122</v>
       </c>
       <c r="Q25" t="n">
         <v>5.67</v>
       </c>
-      <c r="R25" t="s">
-        <v>344</v>
+      <c r="R25" t="n">
+        <v>396461</v>
       </c>
       <c r="S25" t="n">
         <v>4.37</v>
       </c>
-      <c r="T25" t="s">
-        <v>345</v>
+      <c r="T25" t="n">
+        <v>565508</v>
       </c>
       <c r="U25" t="n">
         <v>6.26</v>
       </c>
-      <c r="V25" t="s">
-        <v>346</v>
+      <c r="V25" t="n">
+        <v>521339</v>
       </c>
       <c r="W25" t="n">
         <v>5.63</v>
       </c>
-      <c r="X25" t="s">
-        <v>347</v>
+      <c r="X25" t="n">
+        <v>394437</v>
       </c>
       <c r="Y25" t="n">
         <v>4.57</v>
       </c>
-      <c r="Z25" t="s">
-        <v>348</v>
+      <c r="Z25" t="n">
+        <v>361584</v>
       </c>
       <c r="AA25" t="n">
         <v>4.25</v>
       </c>
-      <c r="AB25" t="s">
-        <v>349</v>
+      <c r="AB25" t="n">
+        <v>481176</v>
       </c>
       <c r="AC25" t="n">
         <v>5.7</v>
       </c>
-      <c r="AD25" t="s">
-        <v>350</v>
+      <c r="AD25" t="n">
+        <v>502979</v>
       </c>
       <c r="AE25" t="n">
         <v>6.05</v>
       </c>
-      <c r="AF25" t="s">
-        <v>351</v>
+      <c r="AF25" t="n">
+        <v>458934</v>
       </c>
       <c r="AG25" t="n">
         <v>5.31</v>
@@ -4897,90 +2980,90 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>352</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
-      <c r="D26" t="s">
-        <v>353</v>
+      <c r="D26" t="n">
+        <v>2713</v>
       </c>
       <c r="E26" t="n">
         <v>0.03</v>
       </c>
-      <c r="F26" t="s">
-        <v>354</v>
+      <c r="F26" t="n">
+        <v>967</v>
       </c>
       <c r="G26" t="n">
         <v>0.01</v>
       </c>
-      <c r="H26" t="s">
-        <v>355</v>
+      <c r="H26" t="n">
+        <v>6847</v>
       </c>
       <c r="I26" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J26" t="s">
-        <v>356</v>
+      <c r="J26" t="n">
+        <v>10290</v>
       </c>
       <c r="K26" t="n">
         <v>0.11</v>
       </c>
-      <c r="L26" t="s">
-        <v>357</v>
+      <c r="L26" t="n">
+        <v>15876</v>
       </c>
       <c r="M26" t="n">
         <v>0.16</v>
       </c>
-      <c r="N26" t="s">
-        <v>358</v>
+      <c r="N26" t="n">
+        <v>7056</v>
       </c>
       <c r="O26" t="n">
         <v>0.08</v>
       </c>
-      <c r="P26" t="s">
-        <v>359</v>
+      <c r="P26" t="n">
+        <v>5703</v>
       </c>
       <c r="Q26" t="n">
         <v>0.06</v>
       </c>
-      <c r="R26" t="s">
-        <v>360</v>
+      <c r="R26" t="n">
+        <v>504</v>
       </c>
       <c r="S26" t="n">
         <v>0.01</v>
       </c>
-      <c r="T26" t="s">
-        <v>361</v>
+      <c r="T26" t="n">
+        <v>497</v>
       </c>
       <c r="U26" t="n">
         <v>0.01</v>
       </c>
-      <c r="V26" t="s">
-        <v>362</v>
+      <c r="V26" t="n">
+        <v>1863</v>
       </c>
       <c r="W26" t="n">
         <v>0.02</v>
       </c>
-      <c r="X26" t="s">
-        <v>50</v>
+      <c r="X26" t="n">
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
-      <c r="Z26" t="s">
-        <v>50</v>
+      <c r="Z26" t="n">
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
-      <c r="AB26" t="s">
-        <v>50</v>
+      <c r="AB26" t="n">
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
-      <c r="AD26" t="s">
-        <v>50</v>
+      <c r="AD26" t="n">
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -4990,100 +3073,100 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" t="s">
-        <v>364</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1527545</v>
       </c>
       <c r="C27" t="n">
         <v>16.03</v>
       </c>
-      <c r="D27" t="s">
-        <v>365</v>
+      <c r="D27" t="n">
+        <v>1525831</v>
       </c>
       <c r="E27" t="n">
         <v>15.77</v>
       </c>
-      <c r="F27" t="s">
-        <v>366</v>
+      <c r="F27" t="n">
+        <v>1523797</v>
       </c>
       <c r="G27" t="n">
         <v>16.26</v>
       </c>
-      <c r="H27" t="s">
-        <v>367</v>
+      <c r="H27" t="n">
+        <v>1521764</v>
       </c>
       <c r="I27" t="n">
         <v>15.55</v>
       </c>
-      <c r="J27" t="s">
-        <v>368</v>
+      <c r="J27" t="n">
+        <v>1519730</v>
       </c>
       <c r="K27" t="n">
         <v>15.51</v>
       </c>
-      <c r="L27" t="s">
-        <v>369</v>
+      <c r="L27" t="n">
+        <v>1517696</v>
       </c>
       <c r="M27" t="n">
         <v>15.4</v>
       </c>
-      <c r="N27" t="s">
-        <v>370</v>
+      <c r="N27" t="n">
+        <v>1515663</v>
       </c>
       <c r="O27" t="n">
         <v>16.65</v>
       </c>
-      <c r="P27" t="s">
-        <v>371</v>
+      <c r="P27" t="n">
+        <v>1526771</v>
       </c>
       <c r="Q27" t="n">
         <v>16.45</v>
       </c>
-      <c r="R27" t="s">
-        <v>372</v>
+      <c r="R27" t="n">
+        <v>1524761</v>
       </c>
       <c r="S27" t="n">
         <v>16.82</v>
       </c>
-      <c r="T27" t="s">
-        <v>373</v>
+      <c r="T27" t="n">
+        <v>1526029</v>
       </c>
       <c r="U27" t="n">
         <v>16.89</v>
       </c>
-      <c r="V27" t="s">
-        <v>374</v>
+      <c r="V27" t="n">
+        <v>1523876</v>
       </c>
       <c r="W27" t="n">
         <v>16.47</v>
       </c>
-      <c r="X27" t="s">
-        <v>375</v>
+      <c r="X27" t="n">
+        <v>1493706</v>
       </c>
       <c r="Y27" t="n">
         <v>17.3</v>
       </c>
-      <c r="Z27" t="s">
-        <v>376</v>
+      <c r="Z27" t="n">
+        <v>1492021</v>
       </c>
       <c r="AA27" t="n">
         <v>17.55</v>
       </c>
-      <c r="AB27" t="s">
-        <v>377</v>
+      <c r="AB27" t="n">
+        <v>1489975</v>
       </c>
       <c r="AC27" t="n">
         <v>17.65</v>
       </c>
-      <c r="AD27" t="s">
-        <v>378</v>
+      <c r="AD27" t="n">
+        <v>1488080</v>
       </c>
       <c r="AE27" t="n">
         <v>17.91</v>
       </c>
-      <c r="AF27" t="s">
-        <v>379</v>
+      <c r="AF27" t="n">
+        <v>1486515</v>
       </c>
       <c r="AG27" t="n">
         <v>17.2</v>
@@ -5091,7 +3174,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>380</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
@@ -5105,62 +3188,62 @@
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
       <c r="M28" t="s"/>
-      <c r="N28" t="s">
-        <v>381</v>
+      <c r="N28" t="n">
+        <v>4130</v>
       </c>
       <c r="O28" t="n">
         <v>0.05</v>
       </c>
-      <c r="P28" t="s">
-        <v>382</v>
+      <c r="P28" t="n">
+        <v>3488</v>
       </c>
       <c r="Q28" t="n">
         <v>0.04</v>
       </c>
-      <c r="R28" t="s">
-        <v>383</v>
+      <c r="R28" t="n">
+        <v>3268</v>
       </c>
       <c r="S28" t="n">
         <v>0.04</v>
       </c>
-      <c r="T28" t="s">
-        <v>384</v>
+      <c r="T28" t="n">
+        <v>1583</v>
       </c>
       <c r="U28" t="n">
         <v>0.02</v>
       </c>
-      <c r="V28" t="s">
-        <v>385</v>
+      <c r="V28" t="n">
+        <v>1378</v>
       </c>
       <c r="W28" t="n">
         <v>0.01</v>
       </c>
-      <c r="X28" t="s">
-        <v>386</v>
+      <c r="X28" t="n">
+        <v>1102</v>
       </c>
       <c r="Y28" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z28" t="s">
-        <v>387</v>
+      <c r="Z28" t="n">
+        <v>1006</v>
       </c>
       <c r="AA28" t="n">
         <v>0.01</v>
       </c>
-      <c r="AB28" t="s">
-        <v>388</v>
+      <c r="AB28" t="n">
+        <v>828</v>
       </c>
       <c r="AC28" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD28" t="s">
-        <v>389</v>
+      <c r="AD28" t="n">
+        <v>4672</v>
       </c>
       <c r="AE28" t="n">
         <v>0.06</v>
       </c>
-      <c r="AF28" t="s">
-        <v>390</v>
+      <c r="AF28" t="n">
+        <v>4547</v>
       </c>
       <c r="AG28" t="n">
         <v>0.05</v>
@@ -5168,100 +3251,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B29" t="s">
-        <v>392</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4210008</v>
       </c>
       <c r="C29" t="n">
         <v>44.19</v>
       </c>
-      <c r="D29" t="s">
-        <v>392</v>
+      <c r="D29" t="n">
+        <v>4210008</v>
       </c>
       <c r="E29" t="n">
         <v>43.52</v>
       </c>
-      <c r="F29" t="s">
-        <v>392</v>
+      <c r="F29" t="n">
+        <v>4210008</v>
       </c>
       <c r="G29" t="n">
         <v>44.93</v>
       </c>
-      <c r="H29" t="s">
-        <v>392</v>
+      <c r="H29" t="n">
+        <v>4210008</v>
       </c>
       <c r="I29" t="n">
         <v>43.01</v>
       </c>
-      <c r="J29" t="s">
-        <v>392</v>
+      <c r="J29" t="n">
+        <v>4210008</v>
       </c>
       <c r="K29" t="n">
         <v>42.96</v>
       </c>
-      <c r="L29" t="s">
-        <v>392</v>
+      <c r="L29" t="n">
+        <v>4210008</v>
       </c>
       <c r="M29" t="n">
         <v>42.73</v>
       </c>
-      <c r="N29" t="s">
-        <v>392</v>
+      <c r="N29" t="n">
+        <v>4210008</v>
       </c>
       <c r="O29" t="n">
         <v>46.25</v>
       </c>
-      <c r="P29" t="s">
-        <v>392</v>
+      <c r="P29" t="n">
+        <v>4210008</v>
       </c>
       <c r="Q29" t="n">
         <v>45.35</v>
       </c>
-      <c r="R29" t="s">
-        <v>392</v>
+      <c r="R29" t="n">
+        <v>4210008</v>
       </c>
       <c r="S29" t="n">
         <v>46.44</v>
       </c>
-      <c r="T29" t="s">
-        <v>392</v>
+      <c r="T29" t="n">
+        <v>4210008</v>
       </c>
       <c r="U29" t="n">
         <v>46.6</v>
       </c>
-      <c r="V29" t="s">
-        <v>393</v>
+      <c r="V29" t="n">
+        <v>3789007</v>
       </c>
       <c r="W29" t="n">
         <v>40.94</v>
       </c>
-      <c r="X29" t="s">
-        <v>393</v>
+      <c r="X29" t="n">
+        <v>3789007</v>
       </c>
       <c r="Y29" t="n">
         <v>43.87</v>
       </c>
-      <c r="Z29" t="s">
-        <v>393</v>
+      <c r="Z29" t="n">
+        <v>3789007</v>
       </c>
       <c r="AA29" t="n">
         <v>44.56</v>
       </c>
-      <c r="AB29" t="s">
-        <v>393</v>
+      <c r="AB29" t="n">
+        <v>3789007</v>
       </c>
       <c r="AC29" t="n">
         <v>44.88</v>
       </c>
-      <c r="AD29" t="s">
-        <v>393</v>
+      <c r="AD29" t="n">
+        <v>3789007</v>
       </c>
       <c r="AE29" t="n">
         <v>45.6</v>
       </c>
-      <c r="AF29" t="s">
-        <v>393</v>
+      <c r="AF29" t="n">
+        <v>3789007</v>
       </c>
       <c r="AG29" t="n">
         <v>43.84</v>
@@ -5269,100 +3352,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B30" t="s">
-        <v>395</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>594818</v>
       </c>
       <c r="C30" t="n">
         <v>6.24</v>
       </c>
-      <c r="D30" t="s">
-        <v>396</v>
+      <c r="D30" t="n">
+        <v>482463</v>
       </c>
       <c r="E30" t="n">
         <v>4.99</v>
       </c>
-      <c r="F30" t="s">
-        <v>397</v>
+      <c r="F30" t="n">
+        <v>503535</v>
       </c>
       <c r="G30" t="n">
         <v>5.37</v>
       </c>
-      <c r="H30" t="s">
-        <v>398</v>
+      <c r="H30" t="n">
+        <v>614892</v>
       </c>
       <c r="I30" t="n">
         <v>6.28</v>
       </c>
-      <c r="J30" t="s">
-        <v>399</v>
+      <c r="J30" t="n">
+        <v>700612</v>
       </c>
       <c r="K30" t="n">
         <v>7.15</v>
       </c>
-      <c r="L30" t="s">
-        <v>400</v>
+      <c r="L30" t="n">
+        <v>291968</v>
       </c>
       <c r="M30" t="n">
         <v>2.96</v>
       </c>
-      <c r="N30" t="s">
-        <v>401</v>
+      <c r="N30" t="n">
+        <v>325417</v>
       </c>
       <c r="O30" t="n">
         <v>3.58</v>
       </c>
-      <c r="P30" t="s">
-        <v>402</v>
+      <c r="P30" t="n">
+        <v>373884</v>
       </c>
       <c r="Q30" t="n">
         <v>4.03</v>
       </c>
-      <c r="R30" t="s">
-        <v>403</v>
+      <c r="R30" t="n">
+        <v>384386</v>
       </c>
       <c r="S30" t="n">
         <v>4.24</v>
       </c>
-      <c r="T30" t="s">
-        <v>404</v>
+      <c r="T30" t="n">
+        <v>254135</v>
       </c>
       <c r="U30" t="n">
         <v>2.81</v>
       </c>
-      <c r="V30" t="s">
-        <v>405</v>
+      <c r="V30" t="n">
+        <v>221705</v>
       </c>
       <c r="W30" t="n">
         <v>2.4</v>
       </c>
-      <c r="X30" t="s">
-        <v>406</v>
+      <c r="X30" t="n">
+        <v>266689</v>
       </c>
       <c r="Y30" t="n">
         <v>3.09</v>
       </c>
-      <c r="Z30" t="s">
-        <v>407</v>
+      <c r="Z30" t="n">
+        <v>255107</v>
       </c>
       <c r="AA30" t="n">
         <v>3</v>
       </c>
-      <c r="AB30" t="s">
-        <v>408</v>
+      <c r="AB30" t="n">
+        <v>242179</v>
       </c>
       <c r="AC30" t="n">
         <v>2.87</v>
       </c>
-      <c r="AD30" t="s">
-        <v>409</v>
+      <c r="AD30" t="n">
+        <v>272705</v>
       </c>
       <c r="AE30" t="n">
         <v>3.28</v>
       </c>
-      <c r="AF30" t="s">
-        <v>410</v>
+      <c r="AF30" t="n">
+        <v>342955</v>
       </c>
       <c r="AG30" t="n">
         <v>3.97</v>
@@ -5370,7 +3453,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>411</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -5388,50 +3471,50 @@
       <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s">
-        <v>412</v>
+      <c r="R31" t="n">
+        <v>17751</v>
       </c>
       <c r="S31" t="n">
         <v>0.2</v>
       </c>
-      <c r="T31" t="s">
-        <v>413</v>
+      <c r="T31" t="n">
+        <v>30294</v>
       </c>
       <c r="U31" t="n">
         <v>0.34</v>
       </c>
-      <c r="V31" t="s">
-        <v>414</v>
+      <c r="V31" t="n">
+        <v>19255</v>
       </c>
       <c r="W31" t="n">
         <v>0.21</v>
       </c>
-      <c r="X31" t="s">
-        <v>415</v>
+      <c r="X31" t="n">
+        <v>33597</v>
       </c>
       <c r="Y31" t="n">
         <v>0.39</v>
       </c>
-      <c r="Z31" t="s">
-        <v>416</v>
+      <c r="Z31" t="n">
+        <v>40801</v>
       </c>
       <c r="AA31" t="n">
         <v>0.48</v>
       </c>
-      <c r="AB31" t="s">
-        <v>417</v>
+      <c r="AB31" t="n">
+        <v>15487</v>
       </c>
       <c r="AC31" t="n">
         <v>0.18</v>
       </c>
-      <c r="AD31" t="s">
-        <v>418</v>
+      <c r="AD31" t="n">
+        <v>3871</v>
       </c>
       <c r="AE31" t="n">
         <v>0.05</v>
       </c>
-      <c r="AF31" t="s">
-        <v>419</v>
+      <c r="AF31" t="n">
+        <v>8114</v>
       </c>
       <c r="AG31" t="n">
         <v>0.09</v>
@@ -5439,7 +3522,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>420</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
@@ -5457,50 +3540,50 @@
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s">
-        <v>421</v>
+      <c r="R32" t="n">
+        <v>280</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="T32" t="s">
-        <v>422</v>
+      <c r="T32" t="n">
+        <v>178</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
-      <c r="V32" t="s">
-        <v>423</v>
+      <c r="V32" t="n">
+        <v>199</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
-      <c r="X32" t="s">
-        <v>424</v>
+      <c r="X32" t="n">
+        <v>220</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" t="s">
-        <v>425</v>
+      <c r="Z32" t="n">
+        <v>196</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
-      <c r="AB32" t="s">
-        <v>426</v>
+      <c r="AB32" t="n">
+        <v>141</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" t="s">
-        <v>427</v>
+      <c r="AD32" t="n">
+        <v>112</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
       </c>
-      <c r="AF32" t="s">
-        <v>428</v>
+      <c r="AF32" t="n">
+        <v>111</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -5508,100 +3591,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B33" t="s">
-        <v>430</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6971521</v>
       </c>
       <c r="C33" t="n">
         <v>73.17</v>
       </c>
-      <c r="D33" t="s">
-        <v>431</v>
+      <c r="D33" t="n">
+        <v>6914699</v>
       </c>
       <c r="E33" t="n">
         <v>71.48</v>
       </c>
-      <c r="F33" t="s">
-        <v>432</v>
+      <c r="F33" t="n">
+        <v>6908200</v>
       </c>
       <c r="G33" t="n">
         <v>73.73</v>
       </c>
-      <c r="H33" t="s">
-        <v>433</v>
+      <c r="H33" t="n">
+        <v>7126364</v>
       </c>
       <c r="I33" t="n">
         <v>72.8</v>
       </c>
-      <c r="J33" t="s">
-        <v>434</v>
+      <c r="J33" t="n">
+        <v>7223050</v>
       </c>
       <c r="K33" t="n">
         <v>73.70999999999999</v>
       </c>
-      <c r="L33" t="s">
-        <v>435</v>
+      <c r="L33" t="n">
+        <v>6802690</v>
       </c>
       <c r="M33" t="n">
         <v>69.05</v>
       </c>
-      <c r="N33" t="s">
-        <v>436</v>
+      <c r="N33" t="n">
+        <v>6900056</v>
       </c>
       <c r="O33" t="n">
         <v>75.8</v>
       </c>
-      <c r="P33" t="s">
-        <v>437</v>
+      <c r="P33" t="n">
+        <v>7032121</v>
       </c>
       <c r="Q33" t="n">
         <v>75.75</v>
       </c>
-      <c r="R33" t="s">
-        <v>438</v>
+      <c r="R33" t="n">
+        <v>7007616</v>
       </c>
       <c r="S33" t="n">
         <v>77.3</v>
       </c>
-      <c r="T33" t="s">
-        <v>439</v>
+      <c r="T33" t="n">
+        <v>6843029</v>
       </c>
       <c r="U33" t="n">
         <v>75.73999999999999</v>
       </c>
-      <c r="V33" t="s">
-        <v>440</v>
+      <c r="V33" t="n">
+        <v>6442124</v>
       </c>
       <c r="W33" t="n">
         <v>69.61</v>
       </c>
-      <c r="X33" t="s">
-        <v>441</v>
+      <c r="X33" t="n">
+        <v>6387928</v>
       </c>
       <c r="Y33" t="n">
         <v>73.97</v>
       </c>
-      <c r="Z33" t="s">
-        <v>442</v>
+      <c r="Z33" t="n">
+        <v>6353801</v>
       </c>
       <c r="AA33" t="n">
         <v>74.73</v>
       </c>
-      <c r="AB33" t="s">
-        <v>443</v>
+      <c r="AB33" t="n">
+        <v>6280820</v>
       </c>
       <c r="AC33" t="n">
         <v>74.39</v>
       </c>
-      <c r="AD33" t="s">
-        <v>444</v>
+      <c r="AD33" t="n">
+        <v>6266429</v>
       </c>
       <c r="AE33" t="n">
         <v>75.42</v>
       </c>
-      <c r="AF33" t="s">
-        <v>445</v>
+      <c r="AF33" t="n">
+        <v>6328821</v>
       </c>
       <c r="AG33" t="n">
         <v>73.22</v>
@@ -5609,100 +3692,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B34" t="s">
-        <v>447</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6061424</v>
       </c>
       <c r="C34" t="n">
         <v>63.62</v>
       </c>
-      <c r="D34" t="s">
-        <v>448</v>
+      <c r="D34" t="n">
+        <v>5988914</v>
       </c>
       <c r="E34" t="n">
         <v>61.91</v>
       </c>
-      <c r="F34" t="s">
-        <v>449</v>
+      <c r="F34" t="n">
+        <v>5998002</v>
       </c>
       <c r="G34" t="n">
         <v>64.02</v>
       </c>
-      <c r="H34" t="s">
-        <v>450</v>
+      <c r="H34" t="n">
+        <v>6146554</v>
       </c>
       <c r="I34" t="n">
         <v>62.79</v>
       </c>
-      <c r="J34" t="s">
-        <v>451</v>
+      <c r="J34" t="n">
+        <v>6225436</v>
       </c>
       <c r="K34" t="n">
         <v>63.53</v>
       </c>
-      <c r="L34" t="s">
-        <v>452</v>
+      <c r="L34" t="n">
+        <v>5786962</v>
       </c>
       <c r="M34" t="n">
         <v>58.74</v>
       </c>
-      <c r="N34" t="s">
-        <v>453</v>
+      <c r="N34" t="n">
+        <v>5872678</v>
       </c>
       <c r="O34" t="n">
         <v>64.52</v>
       </c>
-      <c r="P34" t="s">
-        <v>454</v>
+      <c r="P34" t="n">
+        <v>5968311</v>
       </c>
       <c r="Q34" t="n">
         <v>64.29000000000001</v>
       </c>
-      <c r="R34" t="s">
-        <v>455</v>
+      <c r="R34" t="n">
+        <v>5961341</v>
       </c>
       <c r="S34" t="n">
         <v>65.76000000000001</v>
       </c>
-      <c r="T34" t="s">
-        <v>456</v>
+      <c r="T34" t="n">
+        <v>5825636</v>
       </c>
       <c r="U34" t="n">
         <v>64.48</v>
       </c>
-      <c r="V34" t="s">
-        <v>457</v>
+      <c r="V34" t="n">
+        <v>5437219</v>
       </c>
       <c r="W34" t="n">
         <v>58.76</v>
       </c>
-      <c r="X34" t="s">
-        <v>458</v>
+      <c r="X34" t="n">
+        <v>5421093</v>
       </c>
       <c r="Y34" t="n">
         <v>62.77</v>
       </c>
-      <c r="Z34" t="s">
-        <v>459</v>
+      <c r="Z34" t="n">
+        <v>5411939</v>
       </c>
       <c r="AA34" t="n">
         <v>63.65</v>
       </c>
-      <c r="AB34" t="s">
-        <v>460</v>
+      <c r="AB34" t="n">
+        <v>5346723</v>
       </c>
       <c r="AC34" t="n">
         <v>63.33</v>
       </c>
-      <c r="AD34" t="s">
-        <v>461</v>
+      <c r="AD34" t="n">
+        <v>5354643</v>
       </c>
       <c r="AE34" t="n">
         <v>64.45</v>
       </c>
-      <c r="AF34" t="s">
-        <v>462</v>
+      <c r="AF34" t="n">
+        <v>5406966</v>
       </c>
       <c r="AG34" t="n">
         <v>62.55</v>
@@ -5710,169 +3793,169 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
       </c>
       <c r="C35" t="s"/>
-      <c r="D35" t="s">
-        <v>50</v>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
       <c r="E35" t="s"/>
-      <c r="F35" t="s">
-        <v>50</v>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
       <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
+      <c r="H35" t="n">
+        <v>0</v>
       </c>
       <c r="I35" t="s"/>
-      <c r="J35" t="s">
-        <v>50</v>
+      <c r="J35" t="n">
+        <v>0</v>
       </c>
       <c r="K35" t="s"/>
-      <c r="L35" t="s">
-        <v>50</v>
+      <c r="L35" t="n">
+        <v>0</v>
       </c>
       <c r="M35" t="s"/>
-      <c r="N35" t="s">
-        <v>50</v>
+      <c r="N35" t="n">
+        <v>0</v>
       </c>
       <c r="O35" t="s"/>
-      <c r="P35" t="s">
-        <v>50</v>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s">
-        <v>50</v>
+      <c r="R35" t="n">
+        <v>0</v>
       </c>
       <c r="S35" t="s"/>
-      <c r="T35" t="s">
-        <v>50</v>
+      <c r="T35" t="n">
+        <v>0</v>
       </c>
       <c r="U35" t="s"/>
-      <c r="V35" t="s">
-        <v>50</v>
+      <c r="V35" t="n">
+        <v>0</v>
       </c>
       <c r="W35" t="s"/>
-      <c r="X35" t="s">
-        <v>50</v>
+      <c r="X35" t="n">
+        <v>0</v>
       </c>
       <c r="Y35" t="s"/>
-      <c r="Z35" t="s">
-        <v>50</v>
+      <c r="Z35" t="n">
+        <v>0</v>
       </c>
       <c r="AA35" t="s"/>
-      <c r="AB35" t="s">
-        <v>50</v>
+      <c r="AB35" t="n">
+        <v>0</v>
       </c>
       <c r="AC35" t="s"/>
-      <c r="AD35" t="s">
-        <v>50</v>
+      <c r="AD35" t="n">
+        <v>0</v>
       </c>
       <c r="AE35" t="s"/>
-      <c r="AF35" t="s">
-        <v>50</v>
+      <c r="AF35" t="n">
+        <v>0</v>
       </c>
       <c r="AG35" t="s"/>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B36" t="s">
-        <v>465</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1116298</v>
       </c>
       <c r="C36" t="n">
         <v>11.72</v>
       </c>
-      <c r="D36" t="s">
-        <v>466</v>
+      <c r="D36" t="n">
+        <v>1125079</v>
       </c>
       <c r="E36" t="n">
         <v>11.63</v>
       </c>
-      <c r="F36" t="s">
-        <v>466</v>
+      <c r="F36" t="n">
+        <v>1125079</v>
       </c>
       <c r="G36" t="n">
         <v>12.01</v>
       </c>
-      <c r="H36" t="s">
-        <v>466</v>
+      <c r="H36" t="n">
+        <v>1125079</v>
       </c>
       <c r="I36" t="n">
         <v>11.49</v>
       </c>
-      <c r="J36" t="s">
-        <v>466</v>
+      <c r="J36" t="n">
+        <v>1125079</v>
       </c>
       <c r="K36" t="n">
         <v>11.48</v>
       </c>
-      <c r="L36" t="s">
-        <v>467</v>
+      <c r="L36" t="n">
+        <v>1152532</v>
       </c>
       <c r="M36" t="n">
         <v>11.7</v>
       </c>
-      <c r="N36" t="s">
-        <v>467</v>
+      <c r="N36" t="n">
+        <v>1152532</v>
       </c>
       <c r="O36" t="n">
         <v>12.66</v>
       </c>
-      <c r="P36" t="s">
-        <v>467</v>
+      <c r="P36" t="n">
+        <v>1152532</v>
       </c>
       <c r="Q36" t="n">
         <v>12.41</v>
       </c>
-      <c r="R36" t="s">
-        <v>467</v>
+      <c r="R36" t="n">
+        <v>1152532</v>
       </c>
       <c r="S36" t="n">
         <v>12.71</v>
       </c>
-      <c r="T36" t="s">
-        <v>468</v>
+      <c r="T36" t="n">
+        <v>1180886</v>
       </c>
       <c r="U36" t="n">
         <v>13.07</v>
       </c>
-      <c r="V36" t="s">
-        <v>468</v>
+      <c r="V36" t="n">
+        <v>1180886</v>
       </c>
       <c r="W36" t="n">
         <v>12.76</v>
       </c>
-      <c r="X36" t="s">
-        <v>468</v>
+      <c r="X36" t="n">
+        <v>1180886</v>
       </c>
       <c r="Y36" t="n">
         <v>13.67</v>
       </c>
-      <c r="Z36" t="s">
-        <v>468</v>
+      <c r="Z36" t="n">
+        <v>1180886</v>
       </c>
       <c r="AA36" t="n">
         <v>13.89</v>
       </c>
-      <c r="AB36" t="s">
-        <v>469</v>
+      <c r="AB36" t="n">
+        <v>1182684</v>
       </c>
       <c r="AC36" t="n">
         <v>14.01</v>
       </c>
-      <c r="AD36" t="s">
-        <v>469</v>
+      <c r="AD36" t="n">
+        <v>1182684</v>
       </c>
       <c r="AE36" t="n">
         <v>14.23</v>
       </c>
-      <c r="AF36" t="s">
-        <v>469</v>
+      <c r="AF36" t="n">
+        <v>1182684</v>
       </c>
       <c r="AG36" t="n">
         <v>13.68</v>
@@ -5880,100 +3963,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B37" t="s">
-        <v>471</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1131021</v>
       </c>
       <c r="C37" t="n">
         <v>11.87</v>
       </c>
-      <c r="D37" t="s">
-        <v>472</v>
+      <c r="D37" t="n">
+        <v>1298759</v>
       </c>
       <c r="E37" t="n">
         <v>13.43</v>
       </c>
-      <c r="F37" t="s">
-        <v>473</v>
+      <c r="F37" t="n">
+        <v>1190981</v>
       </c>
       <c r="G37" t="n">
         <v>12.71</v>
       </c>
-      <c r="H37" t="s">
-        <v>474</v>
+      <c r="H37" t="n">
+        <v>1299038</v>
       </c>
       <c r="I37" t="n">
         <v>13.27</v>
       </c>
-      <c r="J37" t="s">
-        <v>475</v>
+      <c r="J37" t="n">
+        <v>1440176</v>
       </c>
       <c r="K37" t="n">
         <v>14.7</v>
       </c>
-      <c r="L37" t="s">
-        <v>476</v>
+      <c r="L37" t="n">
+        <v>1943006</v>
       </c>
       <c r="M37" t="n">
         <v>19.72</v>
       </c>
-      <c r="N37" t="s">
-        <v>477</v>
+      <c r="N37" t="n">
+        <v>1796412</v>
       </c>
       <c r="O37" t="n">
         <v>19.74</v>
       </c>
-      <c r="P37" t="s">
-        <v>478</v>
+      <c r="P37" t="n">
+        <v>1840346</v>
       </c>
       <c r="Q37" t="n">
         <v>19.82</v>
       </c>
-      <c r="R37" t="s">
-        <v>479</v>
+      <c r="R37" t="n">
+        <v>759736</v>
       </c>
       <c r="S37" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="T37" t="s">
-        <v>480</v>
+      <c r="T37" t="n">
+        <v>941266</v>
       </c>
       <c r="U37" t="n">
         <v>10.42</v>
       </c>
-      <c r="V37" t="s">
-        <v>481</v>
+      <c r="V37" t="n">
+        <v>1511428</v>
       </c>
       <c r="W37" t="n">
         <v>16.33</v>
       </c>
-      <c r="X37" t="s">
-        <v>482</v>
+      <c r="X37" t="n">
+        <v>946924</v>
       </c>
       <c r="Y37" t="n">
         <v>10.96</v>
       </c>
-      <c r="Z37" t="s">
-        <v>483</v>
+      <c r="Z37" t="n">
+        <v>969912</v>
       </c>
       <c r="AA37" t="n">
         <v>11.41</v>
       </c>
-      <c r="AB37" t="s">
-        <v>484</v>
+      <c r="AB37" t="n">
+        <v>979826</v>
       </c>
       <c r="AC37" t="n">
         <v>11.61</v>
       </c>
-      <c r="AD37" t="s">
-        <v>485</v>
+      <c r="AD37" t="n">
+        <v>984222</v>
       </c>
       <c r="AE37" t="n">
         <v>11.85</v>
       </c>
-      <c r="AF37" t="s">
-        <v>486</v>
+      <c r="AF37" t="n">
+        <v>1239358</v>
       </c>
       <c r="AG37" t="n">
         <v>14.34</v>
@@ -5981,100 +4064,100 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B38" t="s">
-        <v>488</v>
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2923669</v>
       </c>
       <c r="C38" t="n">
         <v>30.69</v>
       </c>
-      <c r="D38" t="s">
-        <v>489</v>
+      <c r="D38" t="n">
+        <v>3040733</v>
       </c>
       <c r="E38" t="n">
         <v>31.44</v>
       </c>
-      <c r="F38" t="s">
-        <v>490</v>
+      <c r="F38" t="n">
+        <v>2788597</v>
       </c>
       <c r="G38" t="n">
         <v>29.76</v>
       </c>
-      <c r="H38" t="s">
-        <v>491</v>
+      <c r="H38" t="n">
+        <v>3097944</v>
       </c>
       <c r="I38" t="n">
         <v>31.65</v>
       </c>
-      <c r="J38" t="s">
-        <v>492</v>
+      <c r="J38" t="n">
+        <v>3190116</v>
       </c>
       <c r="K38" t="n">
         <v>32.56</v>
       </c>
-      <c r="L38" t="s">
-        <v>493</v>
+      <c r="L38" t="n">
+        <v>3346895</v>
       </c>
       <c r="M38" t="n">
         <v>33.97</v>
       </c>
-      <c r="N38" t="s">
-        <v>494</v>
+      <c r="N38" t="n">
+        <v>2595882</v>
       </c>
       <c r="O38" t="n">
         <v>28.52</v>
       </c>
-      <c r="P38" t="s">
-        <v>495</v>
+      <c r="P38" t="n">
+        <v>2767192</v>
       </c>
       <c r="Q38" t="n">
         <v>29.81</v>
       </c>
-      <c r="R38" t="s">
-        <v>496</v>
+      <c r="R38" t="n">
+        <v>2621817</v>
       </c>
       <c r="S38" t="n">
         <v>28.92</v>
       </c>
-      <c r="T38" t="s">
-        <v>497</v>
+      <c r="T38" t="n">
+        <v>2706882</v>
       </c>
       <c r="U38" t="n">
         <v>29.96</v>
       </c>
-      <c r="V38" t="s">
-        <v>498</v>
+      <c r="V38" t="n">
+        <v>2803030</v>
       </c>
       <c r="W38" t="n">
         <v>30.29</v>
       </c>
-      <c r="X38" t="s">
-        <v>499</v>
+      <c r="X38" t="n">
+        <v>2385481</v>
       </c>
       <c r="Y38" t="n">
         <v>27.62</v>
       </c>
-      <c r="Z38" t="s">
-        <v>500</v>
+      <c r="Z38" t="n">
+        <v>2318190</v>
       </c>
       <c r="AA38" t="n">
         <v>27.26</v>
       </c>
-      <c r="AB38" t="s">
-        <v>501</v>
+      <c r="AB38" t="n">
+        <v>2386724</v>
       </c>
       <c r="AC38" t="n">
         <v>28.27</v>
       </c>
-      <c r="AD38" t="s">
-        <v>502</v>
+      <c r="AD38" t="n">
+        <v>2350290</v>
       </c>
       <c r="AE38" t="n">
         <v>28.29</v>
       </c>
-      <c r="AF38" t="s">
-        <v>503</v>
+      <c r="AF38" t="n">
+        <v>2784672</v>
       </c>
       <c r="AG38" t="n">
         <v>32.22</v>
@@ -6082,100 +4165,100 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B39" t="s">
-        <v>505</v>
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5941</v>
       </c>
       <c r="C39" t="n">
         <v>0.06</v>
       </c>
-      <c r="D39" t="s">
-        <v>506</v>
+      <c r="D39" t="n">
+        <v>5869</v>
       </c>
       <c r="E39" t="n">
         <v>0.06</v>
       </c>
-      <c r="F39" t="s">
-        <v>507</v>
+      <c r="F39" t="n">
+        <v>5631</v>
       </c>
       <c r="G39" t="n">
         <v>0.06</v>
       </c>
-      <c r="H39" t="s">
-        <v>508</v>
+      <c r="H39" t="n">
+        <v>5557</v>
       </c>
       <c r="I39" t="n">
         <v>0.06</v>
       </c>
-      <c r="J39" t="s">
-        <v>509</v>
+      <c r="J39" t="n">
+        <v>5362</v>
       </c>
       <c r="K39" t="n">
         <v>0.05</v>
       </c>
-      <c r="L39" t="s">
-        <v>510</v>
+      <c r="L39" t="n">
+        <v>5094</v>
       </c>
       <c r="M39" t="n">
         <v>0.05</v>
       </c>
-      <c r="N39" t="s">
-        <v>511</v>
+      <c r="N39" t="n">
+        <v>5049</v>
       </c>
       <c r="O39" t="n">
         <v>0.06</v>
       </c>
-      <c r="P39" t="s">
-        <v>512</v>
+      <c r="P39" t="n">
+        <v>5030</v>
       </c>
       <c r="Q39" t="n">
         <v>0.05</v>
       </c>
-      <c r="R39" t="s">
-        <v>513</v>
+      <c r="R39" t="n">
+        <v>4804</v>
       </c>
       <c r="S39" t="n">
         <v>0.05</v>
       </c>
-      <c r="T39" t="s">
-        <v>514</v>
+      <c r="T39" t="n">
+        <v>4560</v>
       </c>
       <c r="U39" t="n">
         <v>0.05</v>
       </c>
-      <c r="V39" t="s">
-        <v>515</v>
+      <c r="V39" t="n">
+        <v>4562</v>
       </c>
       <c r="W39" t="n">
         <v>0.05</v>
       </c>
-      <c r="X39" t="s">
-        <v>516</v>
+      <c r="X39" t="n">
+        <v>4310</v>
       </c>
       <c r="Y39" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z39" t="s">
-        <v>517</v>
+      <c r="Z39" t="n">
+        <v>4109</v>
       </c>
       <c r="AA39" t="n">
         <v>0.05</v>
       </c>
-      <c r="AB39" t="s">
-        <v>518</v>
+      <c r="AB39" t="n">
+        <v>3828</v>
       </c>
       <c r="AC39" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD39" t="s">
-        <v>519</v>
+      <c r="AD39" t="n">
+        <v>3538</v>
       </c>
       <c r="AE39" t="n">
         <v>0.04</v>
       </c>
-      <c r="AF39" t="s">
-        <v>520</v>
+      <c r="AF39" t="n">
+        <v>3313</v>
       </c>
       <c r="AG39" t="n">
         <v>0.04</v>
@@ -6183,100 +4266,100 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B40" t="s">
-        <v>522</v>
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>42354</v>
       </c>
       <c r="C40" t="n">
         <v>0.44</v>
       </c>
-      <c r="D40" t="s">
-        <v>523</v>
+      <c r="D40" t="n">
+        <v>54867</v>
       </c>
       <c r="E40" t="n">
         <v>0.57</v>
       </c>
-      <c r="F40" t="s">
-        <v>523</v>
+      <c r="F40" t="n">
+        <v>54867</v>
       </c>
       <c r="G40" t="n">
         <v>0.59</v>
       </c>
-      <c r="H40" t="s">
-        <v>523</v>
+      <c r="H40" t="n">
+        <v>54867</v>
       </c>
       <c r="I40" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J40" t="s">
-        <v>523</v>
+      <c r="J40" t="n">
+        <v>54867</v>
       </c>
       <c r="K40" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L40" t="s">
-        <v>522</v>
+      <c r="L40" t="n">
+        <v>42354</v>
       </c>
       <c r="M40" t="n">
         <v>0.43</v>
       </c>
-      <c r="N40" t="s">
-        <v>522</v>
+      <c r="N40" t="n">
+        <v>42354</v>
       </c>
       <c r="O40" t="n">
         <v>0.47</v>
       </c>
-      <c r="P40" t="s">
-        <v>522</v>
+      <c r="P40" t="n">
+        <v>42354</v>
       </c>
       <c r="Q40" t="n">
         <v>0.46</v>
       </c>
-      <c r="R40" t="s">
-        <v>522</v>
+      <c r="R40" t="n">
+        <v>42354</v>
       </c>
       <c r="S40" t="n">
         <v>0.47</v>
       </c>
-      <c r="T40" t="s">
-        <v>522</v>
+      <c r="T40" t="n">
+        <v>42354</v>
       </c>
       <c r="U40" t="n">
         <v>0.47</v>
       </c>
-      <c r="V40" t="s">
-        <v>522</v>
+      <c r="V40" t="n">
+        <v>42354</v>
       </c>
       <c r="W40" t="n">
         <v>0.46</v>
       </c>
-      <c r="X40" t="s">
-        <v>522</v>
+      <c r="X40" t="n">
+        <v>42354</v>
       </c>
       <c r="Y40" t="n">
         <v>0.49</v>
       </c>
-      <c r="Z40" t="s">
-        <v>522</v>
+      <c r="Z40" t="n">
+        <v>42354</v>
       </c>
       <c r="AA40" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB40" t="s">
-        <v>522</v>
+      <c r="AB40" t="n">
+        <v>42354</v>
       </c>
       <c r="AC40" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD40" t="s">
-        <v>522</v>
+      <c r="AD40" t="n">
+        <v>42354</v>
       </c>
       <c r="AE40" t="n">
         <v>0.51</v>
       </c>
-      <c r="AF40" t="s">
-        <v>522</v>
+      <c r="AF40" t="n">
+        <v>42354</v>
       </c>
       <c r="AG40" t="n">
         <v>0.49</v>
@@ -6284,100 +4367,100 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B41" t="s">
-        <v>525</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1020937</v>
       </c>
       <c r="C41" t="n">
         <v>10.72</v>
       </c>
-      <c r="D41" t="s">
-        <v>526</v>
+      <c r="D41" t="n">
+        <v>1018615</v>
       </c>
       <c r="E41" t="n">
         <v>10.53</v>
       </c>
-      <c r="F41" t="s">
-        <v>527</v>
+      <c r="F41" t="n">
+        <v>819400</v>
       </c>
       <c r="G41" t="n">
         <v>8.75</v>
       </c>
-      <c r="H41" t="s">
-        <v>528</v>
+      <c r="H41" t="n">
+        <v>929771</v>
       </c>
       <c r="I41" t="n">
         <v>9.5</v>
       </c>
-      <c r="J41" t="s">
-        <v>529</v>
+      <c r="J41" t="n">
+        <v>905517</v>
       </c>
       <c r="K41" t="n">
         <v>9.24</v>
       </c>
-      <c r="L41" t="s">
-        <v>530</v>
+      <c r="L41" t="n">
+        <v>950247</v>
       </c>
       <c r="M41" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="N41" t="s">
-        <v>531</v>
+      <c r="N41" t="n">
+        <v>692337</v>
       </c>
       <c r="O41" t="n">
         <v>7.61</v>
       </c>
-      <c r="P41" t="s">
-        <v>532</v>
+      <c r="P41" t="n">
+        <v>746356</v>
       </c>
       <c r="Q41" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="R41" t="s">
-        <v>533</v>
+      <c r="R41" t="n">
+        <v>742988</v>
       </c>
       <c r="S41" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="T41" t="s">
-        <v>534</v>
+      <c r="T41" t="n">
+        <v>722075</v>
       </c>
       <c r="U41" t="n">
         <v>7.99</v>
       </c>
-      <c r="V41" t="s">
-        <v>535</v>
+      <c r="V41" t="n">
+        <v>825466</v>
       </c>
       <c r="W41" t="n">
         <v>8.92</v>
       </c>
-      <c r="X41" t="s">
-        <v>536</v>
+      <c r="X41" t="n">
+        <v>675075</v>
       </c>
       <c r="Y41" t="n">
         <v>7.82</v>
       </c>
-      <c r="Z41" t="s">
-        <v>537</v>
+      <c r="Z41" t="n">
+        <v>544318</v>
       </c>
       <c r="AA41" t="n">
         <v>6.4</v>
       </c>
-      <c r="AB41" t="s">
-        <v>538</v>
+      <c r="AB41" t="n">
+        <v>565145</v>
       </c>
       <c r="AC41" t="n">
         <v>6.69</v>
       </c>
-      <c r="AD41" t="s">
-        <v>539</v>
+      <c r="AD41" t="n">
+        <v>594668</v>
       </c>
       <c r="AE41" t="n">
         <v>7.16</v>
       </c>
-      <c r="AF41" t="s">
-        <v>540</v>
+      <c r="AF41" t="n">
+        <v>746203</v>
       </c>
       <c r="AG41" t="n">
         <v>8.630000000000001</v>
@@ -6385,52 +4468,52 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B42" t="s">
-        <v>542</v>
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>25279</v>
       </c>
       <c r="C42" t="n">
         <v>0.27</v>
       </c>
-      <c r="D42" t="s">
-        <v>543</v>
+      <c r="D42" t="n">
+        <v>18261</v>
       </c>
       <c r="E42" t="n">
         <v>0.19</v>
       </c>
-      <c r="F42" t="s">
-        <v>544</v>
+      <c r="F42" t="n">
+        <v>16290</v>
       </c>
       <c r="G42" t="n">
         <v>0.17</v>
       </c>
-      <c r="H42" t="s">
-        <v>545</v>
+      <c r="H42" t="n">
+        <v>42336</v>
       </c>
       <c r="I42" t="n">
         <v>0.43</v>
       </c>
-      <c r="J42" t="s">
-        <v>546</v>
+      <c r="J42" t="n">
+        <v>50570</v>
       </c>
       <c r="K42" t="n">
         <v>0.52</v>
       </c>
-      <c r="L42" t="s">
-        <v>547</v>
+      <c r="L42" t="n">
+        <v>66098</v>
       </c>
       <c r="M42" t="n">
         <v>0.67</v>
       </c>
-      <c r="N42" t="s">
-        <v>548</v>
+      <c r="N42" t="n">
+        <v>7420</v>
       </c>
       <c r="O42" t="n">
         <v>0.08</v>
       </c>
-      <c r="P42" t="s">
-        <v>549</v>
+      <c r="P42" t="n">
+        <v>14456</v>
       </c>
       <c r="Q42" t="n">
         <v>0.16</v>
@@ -6454,52 +4537,52 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B43" t="s">
-        <v>551</v>
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1761</v>
       </c>
       <c r="C43" t="n">
         <v>0.02</v>
       </c>
-      <c r="D43" t="s">
-        <v>552</v>
+      <c r="D43" t="n">
+        <v>189</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>553</v>
+      <c r="F43" t="n">
+        <v>213</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
-        <v>554</v>
+      <c r="H43" t="n">
+        <v>319</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
-        <v>555</v>
+      <c r="J43" t="n">
+        <v>288</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="s">
-        <v>556</v>
+      <c r="L43" t="n">
+        <v>286</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="s">
-        <v>557</v>
+      <c r="N43" t="n">
+        <v>308</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="s">
-        <v>558</v>
+      <c r="P43" t="n">
+        <v>333</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -6523,7 +4606,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>559</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
@@ -6531,80 +4614,80 @@
       <c r="E44" t="s"/>
       <c r="F44" t="s"/>
       <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>560</v>
+      <c r="H44" t="n">
+        <v>95840</v>
       </c>
       <c r="I44" t="n">
         <v>0.98</v>
       </c>
-      <c r="J44" t="s">
-        <v>561</v>
+      <c r="J44" t="n">
+        <v>223730</v>
       </c>
       <c r="K44" t="n">
         <v>2.28</v>
       </c>
-      <c r="L44" t="s">
-        <v>562</v>
+      <c r="L44" t="n">
+        <v>219421</v>
       </c>
       <c r="M44" t="n">
         <v>2.23</v>
       </c>
-      <c r="N44" t="s">
-        <v>563</v>
+      <c r="N44" t="n">
+        <v>182616</v>
       </c>
       <c r="O44" t="n">
         <v>2.01</v>
       </c>
-      <c r="P44" t="s">
-        <v>564</v>
+      <c r="P44" t="n">
+        <v>190308</v>
       </c>
       <c r="Q44" t="n">
         <v>2.05</v>
       </c>
-      <c r="R44" t="s">
-        <v>565</v>
+      <c r="R44" t="n">
+        <v>191546</v>
       </c>
       <c r="S44" t="n">
         <v>2.11</v>
       </c>
-      <c r="T44" t="s">
-        <v>566</v>
+      <c r="T44" t="n">
+        <v>189527</v>
       </c>
       <c r="U44" t="n">
         <v>2.1</v>
       </c>
-      <c r="V44" t="s">
-        <v>567</v>
+      <c r="V44" t="n">
+        <v>202081</v>
       </c>
       <c r="W44" t="n">
         <v>2.18</v>
       </c>
-      <c r="X44" t="s">
-        <v>568</v>
+      <c r="X44" t="n">
+        <v>257058</v>
       </c>
       <c r="Y44" t="n">
         <v>2.98</v>
       </c>
-      <c r="Z44" t="s">
-        <v>569</v>
+      <c r="Z44" t="n">
+        <v>248517</v>
       </c>
       <c r="AA44" t="n">
         <v>2.92</v>
       </c>
-      <c r="AB44" t="s">
-        <v>570</v>
+      <c r="AB44" t="n">
+        <v>249188</v>
       </c>
       <c r="AC44" t="n">
         <v>2.95</v>
       </c>
-      <c r="AD44" t="s">
-        <v>571</v>
+      <c r="AD44" t="n">
+        <v>235325</v>
       </c>
       <c r="AE44" t="n">
         <v>2.83</v>
       </c>
-      <c r="AF44" t="s">
-        <v>572</v>
+      <c r="AF44" t="n">
+        <v>281543</v>
       </c>
       <c r="AG44" t="n">
         <v>3.26</v>
@@ -6612,100 +4695,100 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B45" t="s">
-        <v>392</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4210008</v>
       </c>
       <c r="C45" t="n">
         <v>44.19</v>
       </c>
-      <c r="D45" t="s">
-        <v>392</v>
+      <c r="D45" t="n">
+        <v>4210008</v>
       </c>
       <c r="E45" t="n">
         <v>43.52</v>
       </c>
-      <c r="F45" t="s">
-        <v>392</v>
+      <c r="F45" t="n">
+        <v>4210008</v>
       </c>
       <c r="G45" t="n">
         <v>44.93</v>
       </c>
-      <c r="H45" t="s">
-        <v>392</v>
+      <c r="H45" t="n">
+        <v>4210008</v>
       </c>
       <c r="I45" t="n">
         <v>43.01</v>
       </c>
-      <c r="J45" t="s">
-        <v>392</v>
+      <c r="J45" t="n">
+        <v>4210008</v>
       </c>
       <c r="K45" t="n">
         <v>42.96</v>
       </c>
-      <c r="L45" t="s">
-        <v>392</v>
+      <c r="L45" t="n">
+        <v>4210008</v>
       </c>
       <c r="M45" t="n">
         <v>42.73</v>
       </c>
-      <c r="N45" t="s">
-        <v>392</v>
+      <c r="N45" t="n">
+        <v>4210008</v>
       </c>
       <c r="O45" t="n">
         <v>46.25</v>
       </c>
-      <c r="P45" t="s">
-        <v>392</v>
+      <c r="P45" t="n">
+        <v>4210008</v>
       </c>
       <c r="Q45" t="n">
         <v>45.35</v>
       </c>
-      <c r="R45" t="s">
-        <v>392</v>
+      <c r="R45" t="n">
+        <v>4210008</v>
       </c>
       <c r="S45" t="n">
         <v>46.44</v>
       </c>
-      <c r="T45" t="s">
-        <v>392</v>
+      <c r="T45" t="n">
+        <v>4210008</v>
       </c>
       <c r="U45" t="n">
         <v>46.6</v>
       </c>
-      <c r="V45" t="s">
-        <v>393</v>
+      <c r="V45" t="n">
+        <v>3789007</v>
       </c>
       <c r="W45" t="n">
         <v>40.94</v>
       </c>
-      <c r="X45" t="s">
-        <v>393</v>
+      <c r="X45" t="n">
+        <v>3789007</v>
       </c>
       <c r="Y45" t="n">
         <v>43.87</v>
       </c>
-      <c r="Z45" t="s">
-        <v>393</v>
+      <c r="Z45" t="n">
+        <v>3789007</v>
       </c>
       <c r="AA45" t="n">
         <v>44.56</v>
       </c>
-      <c r="AB45" t="s">
-        <v>393</v>
+      <c r="AB45" t="n">
+        <v>3789007</v>
       </c>
       <c r="AC45" t="n">
         <v>44.88</v>
       </c>
-      <c r="AD45" t="s">
-        <v>393</v>
+      <c r="AD45" t="n">
+        <v>3789007</v>
       </c>
       <c r="AE45" t="n">
         <v>45.6</v>
       </c>
-      <c r="AF45" t="s">
-        <v>393</v>
+      <c r="AF45" t="n">
+        <v>3789007</v>
       </c>
       <c r="AG45" t="n">
         <v>43.84</v>
@@ -6713,7 +4796,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>574</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
@@ -6731,50 +4814,50 @@
       <c r="O46" t="s"/>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s">
-        <v>575</v>
+      <c r="R46" t="n">
+        <v>9065026</v>
       </c>
       <c r="S46" t="n">
         <v>100</v>
       </c>
-      <c r="T46" t="s">
-        <v>576</v>
+      <c r="T46" t="n">
+        <v>9035090</v>
       </c>
       <c r="U46" t="n">
         <v>100</v>
       </c>
-      <c r="V46" t="s">
-        <v>577</v>
+      <c r="V46" t="n">
+        <v>9253975</v>
       </c>
       <c r="W46" t="n">
         <v>100</v>
       </c>
-      <c r="X46" t="s">
-        <v>578</v>
+      <c r="X46" t="n">
+        <v>8636326</v>
       </c>
       <c r="Y46" t="n">
         <v>100</v>
       </c>
-      <c r="Z46" t="s">
-        <v>579</v>
+      <c r="Z46" t="n">
+        <v>8502711</v>
       </c>
       <c r="AA46" t="n">
         <v>100</v>
       </c>
-      <c r="AB46" t="s">
-        <v>580</v>
+      <c r="AB46" t="n">
+        <v>8442895</v>
       </c>
       <c r="AC46" t="n">
         <v>100</v>
       </c>
-      <c r="AD46" t="s">
-        <v>581</v>
+      <c r="AD46" t="n">
+        <v>8308838</v>
       </c>
       <c r="AE46" t="n">
         <v>100</v>
       </c>
-      <c r="AF46" t="s">
-        <v>582</v>
+      <c r="AF46" t="n">
+        <v>8643664</v>
       </c>
       <c r="AG46" t="n">
         <v>100</v>
@@ -6782,100 +4865,100 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B47" t="s">
-        <v>584</v>
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2556433</v>
       </c>
       <c r="C47" t="n">
         <v>26.83</v>
       </c>
-      <c r="D47" t="s">
-        <v>585</v>
+      <c r="D47" t="n">
+        <v>2758354</v>
       </c>
       <c r="E47" t="n">
         <v>28.52</v>
       </c>
-      <c r="F47" t="s">
-        <v>586</v>
+      <c r="F47" t="n">
+        <v>2461129</v>
       </c>
       <c r="G47" t="n">
         <v>26.27</v>
       </c>
-      <c r="H47" t="s">
-        <v>587</v>
+      <c r="H47" t="n">
+        <v>2662872</v>
       </c>
       <c r="I47" t="n">
         <v>27.2</v>
       </c>
-      <c r="J47" t="s">
-        <v>588</v>
+      <c r="J47" t="n">
+        <v>2575691</v>
       </c>
       <c r="K47" t="n">
         <v>26.29</v>
       </c>
-      <c r="L47" t="s">
-        <v>589</v>
+      <c r="L47" t="n">
+        <v>3049680</v>
       </c>
       <c r="M47" t="n">
         <v>30.95</v>
       </c>
-      <c r="N47" t="s">
-        <v>590</v>
+      <c r="N47" t="n">
+        <v>2202406</v>
       </c>
       <c r="O47" t="n">
         <v>24.2</v>
       </c>
-      <c r="P47" t="s">
-        <v>591</v>
+      <c r="P47" t="n">
+        <v>2251394</v>
       </c>
       <c r="Q47" t="n">
         <v>24.25</v>
       </c>
-      <c r="R47" t="s">
-        <v>592</v>
+      <c r="R47" t="n">
+        <v>2057410</v>
       </c>
       <c r="S47" t="n">
         <v>22.7</v>
       </c>
-      <c r="T47" t="s">
-        <v>593</v>
+      <c r="T47" t="n">
+        <v>2192061</v>
       </c>
       <c r="U47" t="n">
         <v>24.26</v>
       </c>
-      <c r="V47" t="s">
-        <v>594</v>
+      <c r="V47" t="n">
+        <v>2811851</v>
       </c>
       <c r="W47" t="n">
         <v>30.39</v>
       </c>
-      <c r="X47" t="s">
-        <v>595</v>
+      <c r="X47" t="n">
+        <v>2248398</v>
       </c>
       <c r="Y47" t="n">
         <v>26.03</v>
       </c>
-      <c r="Z47" t="s">
-        <v>596</v>
+      <c r="Z47" t="n">
+        <v>2148910</v>
       </c>
       <c r="AA47" t="n">
         <v>25.27</v>
       </c>
-      <c r="AB47" t="s">
-        <v>597</v>
+      <c r="AB47" t="n">
+        <v>2162075</v>
       </c>
       <c r="AC47" t="n">
         <v>25.61</v>
       </c>
-      <c r="AD47" t="s">
-        <v>598</v>
+      <c r="AD47" t="n">
+        <v>2042409</v>
       </c>
       <c r="AE47" t="n">
         <v>24.58</v>
       </c>
-      <c r="AF47" t="s">
-        <v>599</v>
+      <c r="AF47" t="n">
+        <v>2314843</v>
       </c>
       <c r="AG47" t="n">
         <v>26.78</v>
@@ -6883,100 +4966,100 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B48" t="s">
-        <v>601</v>
+        <v>78</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22299</v>
       </c>
       <c r="C48" t="n">
         <v>0.23</v>
       </c>
-      <c r="D48" t="s">
-        <v>601</v>
+      <c r="D48" t="n">
+        <v>22299</v>
       </c>
       <c r="E48" t="n">
         <v>0.23</v>
       </c>
-      <c r="F48" t="s">
-        <v>601</v>
+      <c r="F48" t="n">
+        <v>22299</v>
       </c>
       <c r="G48" t="n">
         <v>0.24</v>
       </c>
-      <c r="H48" t="s">
-        <v>601</v>
+      <c r="H48" t="n">
+        <v>22299</v>
       </c>
       <c r="I48" t="n">
         <v>0.23</v>
       </c>
-      <c r="J48" t="s">
-        <v>601</v>
+      <c r="J48" t="n">
+        <v>22299</v>
       </c>
       <c r="K48" t="n">
         <v>0.23</v>
       </c>
-      <c r="L48" t="s">
-        <v>601</v>
+      <c r="L48" t="n">
+        <v>22299</v>
       </c>
       <c r="M48" t="n">
         <v>0.23</v>
       </c>
-      <c r="N48" t="s">
-        <v>601</v>
+      <c r="N48" t="n">
+        <v>22299</v>
       </c>
       <c r="O48" t="n">
         <v>0.24</v>
       </c>
-      <c r="P48" t="s">
-        <v>601</v>
+      <c r="P48" t="n">
+        <v>22299</v>
       </c>
       <c r="Q48" t="n">
         <v>0.24</v>
       </c>
-      <c r="R48" t="s">
-        <v>601</v>
+      <c r="R48" t="n">
+        <v>22299</v>
       </c>
       <c r="S48" t="n">
         <v>0.25</v>
       </c>
-      <c r="T48" t="s">
-        <v>601</v>
+      <c r="T48" t="n">
+        <v>22299</v>
       </c>
       <c r="U48" t="n">
         <v>0.25</v>
       </c>
-      <c r="V48" t="s">
-        <v>601</v>
+      <c r="V48" t="n">
+        <v>22299</v>
       </c>
       <c r="W48" t="n">
         <v>0.24</v>
       </c>
-      <c r="X48" t="s">
-        <v>601</v>
+      <c r="X48" t="n">
+        <v>22299</v>
       </c>
       <c r="Y48" t="n">
         <v>0.26</v>
       </c>
-      <c r="Z48" t="s">
-        <v>601</v>
+      <c r="Z48" t="n">
+        <v>22299</v>
       </c>
       <c r="AA48" t="n">
         <v>0.26</v>
       </c>
-      <c r="AB48" t="s">
-        <v>601</v>
+      <c r="AB48" t="n">
+        <v>22299</v>
       </c>
       <c r="AC48" t="n">
         <v>0.26</v>
       </c>
-      <c r="AD48" t="s">
-        <v>601</v>
+      <c r="AD48" t="n">
+        <v>22299</v>
       </c>
       <c r="AE48" t="n">
         <v>0.27</v>
       </c>
-      <c r="AF48" t="s">
-        <v>601</v>
+      <c r="AF48" t="n">
+        <v>22299</v>
       </c>
       <c r="AG48" t="n">
         <v>0.26</v>
@@ -6984,10 +5067,10 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B49" t="s">
-        <v>601</v>
+        <v>79</v>
+      </c>
+      <c r="B49" t="n">
+        <v>22299</v>
       </c>
       <c r="C49" t="n">
         <v>0.23</v>
@@ -6998,28 +5081,28 @@
       <c r="G49" t="s"/>
       <c r="H49" t="s"/>
       <c r="I49" t="s"/>
-      <c r="J49" t="s">
-        <v>601</v>
+      <c r="J49" t="n">
+        <v>22299</v>
       </c>
       <c r="K49" t="n">
         <v>0.23</v>
       </c>
-      <c r="L49" t="s">
-        <v>601</v>
+      <c r="L49" t="n">
+        <v>22299</v>
       </c>
       <c r="M49" t="n">
         <v>0.23</v>
       </c>
-      <c r="N49" t="s">
-        <v>601</v>
+      <c r="N49" t="n">
+        <v>22299</v>
       </c>
       <c r="O49" t="n">
         <v>0.24</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="s">
-        <v>601</v>
+      <c r="R49" t="n">
+        <v>22299</v>
       </c>
       <c r="S49" t="n">
         <v>0.25</v>
@@ -7030,26 +5113,26 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s"/>
-      <c r="Z49" t="s">
-        <v>601</v>
+      <c r="Z49" t="n">
+        <v>22299</v>
       </c>
       <c r="AA49" t="n">
         <v>0.26</v>
       </c>
-      <c r="AB49" t="s">
-        <v>601</v>
+      <c r="AB49" t="n">
+        <v>22299</v>
       </c>
       <c r="AC49" t="n">
         <v>0.26</v>
       </c>
-      <c r="AD49" t="s">
-        <v>601</v>
+      <c r="AD49" t="n">
+        <v>22299</v>
       </c>
       <c r="AE49" t="n">
         <v>0.27</v>
       </c>
-      <c r="AF49" t="s">
-        <v>601</v>
+      <c r="AF49" t="n">
+        <v>22299</v>
       </c>
       <c r="AG49" t="n">
         <v>0.26</v>
@@ -7057,100 +5140,100 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B50" t="s">
-        <v>604</v>
+        <v>80</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9527954</v>
       </c>
       <c r="C50" t="n">
         <v>100</v>
       </c>
-      <c r="D50" t="s">
-        <v>605</v>
+      <c r="D50" t="n">
+        <v>9673053</v>
       </c>
       <c r="E50" t="n">
         <v>100</v>
       </c>
-      <c r="F50" t="s">
-        <v>606</v>
+      <c r="F50" t="n">
+        <v>9369329</v>
       </c>
       <c r="G50" t="n">
         <v>100</v>
       </c>
-      <c r="H50" t="s">
-        <v>607</v>
+      <c r="H50" t="n">
+        <v>9789236</v>
       </c>
       <c r="I50" t="n">
         <v>100</v>
       </c>
-      <c r="J50" t="s">
-        <v>608</v>
+      <c r="J50" t="n">
+        <v>9798741</v>
       </c>
       <c r="K50" t="n">
         <v>100</v>
       </c>
-      <c r="L50" t="s">
-        <v>609</v>
+      <c r="L50" t="n">
+        <v>9852370</v>
       </c>
       <c r="M50" t="n">
         <v>100</v>
       </c>
-      <c r="N50" t="s">
-        <v>610</v>
+      <c r="N50" t="n">
+        <v>9102462</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
       </c>
-      <c r="P50" t="s">
-        <v>611</v>
+      <c r="P50" t="n">
+        <v>9283515</v>
       </c>
       <c r="Q50" t="n">
         <v>100</v>
       </c>
-      <c r="R50" t="s">
-        <v>575</v>
+      <c r="R50" t="n">
+        <v>9065026</v>
       </c>
       <c r="S50" t="n">
         <v>100</v>
       </c>
-      <c r="T50" t="s">
-        <v>576</v>
+      <c r="T50" t="n">
+        <v>9035090</v>
       </c>
       <c r="U50" t="n">
         <v>100</v>
       </c>
-      <c r="V50" t="s">
-        <v>577</v>
+      <c r="V50" t="n">
+        <v>9253975</v>
       </c>
       <c r="W50" t="n">
         <v>100</v>
       </c>
-      <c r="X50" t="s">
-        <v>578</v>
+      <c r="X50" t="n">
+        <v>8636326</v>
       </c>
       <c r="Y50" t="n">
         <v>100</v>
       </c>
-      <c r="Z50" t="s">
-        <v>579</v>
+      <c r="Z50" t="n">
+        <v>8502711</v>
       </c>
       <c r="AA50" t="n">
         <v>100</v>
       </c>
-      <c r="AB50" t="s">
-        <v>580</v>
+      <c r="AB50" t="n">
+        <v>8442895</v>
       </c>
       <c r="AC50" t="n">
         <v>100</v>
       </c>
-      <c r="AD50" t="s">
-        <v>581</v>
+      <c r="AD50" t="n">
+        <v>8308838</v>
       </c>
       <c r="AE50" t="n">
         <v>100</v>
       </c>
-      <c r="AF50" t="s">
-        <v>582</v>
+      <c r="AF50" t="n">
+        <v>8643664</v>
       </c>
       <c r="AG50" t="n">
         <v>100</v>
@@ -7158,12 +5241,12 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>612</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="s"/>
-      <c r="D51" t="s">
-        <v>613</v>
+      <c r="D51" t="n">
+        <v>122200</v>
       </c>
       <c r="E51" t="n">
         <v>1.26</v>
@@ -7174,8 +5257,8 @@
       <c r="I51" t="s"/>
       <c r="J51" t="s"/>
       <c r="K51" t="s"/>
-      <c r="L51" t="s">
-        <v>50</v>
+      <c r="L51" t="n">
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -7203,100 +5286,100 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B52" t="s">
-        <v>615</v>
+        <v>82</v>
+      </c>
+      <c r="B52" t="n">
+        <v>18117</v>
       </c>
       <c r="C52" t="n">
         <v>0.19</v>
       </c>
-      <c r="D52" t="s">
-        <v>616</v>
+      <c r="D52" t="n">
+        <v>22013</v>
       </c>
       <c r="E52" t="n">
         <v>0.23</v>
       </c>
-      <c r="F52" t="s">
-        <v>617</v>
+      <c r="F52" t="n">
+        <v>28272</v>
       </c>
       <c r="G52" t="n">
         <v>0.3</v>
       </c>
-      <c r="H52" t="s">
-        <v>618</v>
+      <c r="H52" t="n">
+        <v>50188</v>
       </c>
       <c r="I52" t="n">
         <v>0.51</v>
       </c>
-      <c r="J52" t="s">
-        <v>619</v>
+      <c r="J52" t="n">
+        <v>41452</v>
       </c>
       <c r="K52" t="n">
         <v>0.42</v>
       </c>
-      <c r="L52" t="s">
-        <v>620</v>
+      <c r="L52" t="n">
+        <v>46978</v>
       </c>
       <c r="M52" t="n">
         <v>0.48</v>
       </c>
-      <c r="N52" t="s">
-        <v>621</v>
+      <c r="N52" t="n">
+        <v>36989</v>
       </c>
       <c r="O52" t="n">
         <v>0.41</v>
       </c>
-      <c r="P52" t="s">
-        <v>622</v>
+      <c r="P52" t="n">
+        <v>6998</v>
       </c>
       <c r="Q52" t="n">
         <v>0.08</v>
       </c>
-      <c r="R52" t="s">
-        <v>623</v>
+      <c r="R52" t="n">
+        <v>6922</v>
       </c>
       <c r="S52" t="n">
         <v>0.08</v>
       </c>
-      <c r="T52" t="s">
-        <v>623</v>
+      <c r="T52" t="n">
+        <v>6922</v>
       </c>
       <c r="U52" t="n">
         <v>0.08</v>
       </c>
-      <c r="V52" t="s">
-        <v>624</v>
+      <c r="V52" t="n">
+        <v>6923</v>
       </c>
       <c r="W52" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="X52" t="s">
-        <v>625</v>
+      <c r="X52" t="n">
+        <v>5319</v>
       </c>
       <c r="Y52" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z52" t="s">
-        <v>626</v>
+      <c r="Z52" t="n">
+        <v>4899</v>
       </c>
       <c r="AA52" t="n">
         <v>0.06</v>
       </c>
-      <c r="AB52" t="s">
-        <v>626</v>
+      <c r="AB52" t="n">
+        <v>4899</v>
       </c>
       <c r="AC52" t="n">
         <v>0.06</v>
       </c>
-      <c r="AD52" t="s">
-        <v>626</v>
+      <c r="AD52" t="n">
+        <v>4899</v>
       </c>
       <c r="AE52" t="n">
         <v>0.06</v>
       </c>
-      <c r="AF52" t="s">
-        <v>627</v>
+      <c r="AF52" t="n">
+        <v>3709</v>
       </c>
       <c r="AG52" t="n">
         <v>0.04</v>
@@ -7304,100 +5387,100 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="B53" t="s">
-        <v>629</v>
+        <v>83</v>
+      </c>
+      <c r="B53" t="n">
+        <v>81294</v>
       </c>
       <c r="C53" t="n">
         <v>0.85</v>
       </c>
-      <c r="D53" t="s">
-        <v>630</v>
+      <c r="D53" t="n">
+        <v>88230</v>
       </c>
       <c r="E53" t="n">
         <v>0.91</v>
       </c>
-      <c r="F53" t="s">
-        <v>631</v>
+      <c r="F53" t="n">
+        <v>95803</v>
       </c>
       <c r="G53" t="n">
         <v>1.02</v>
       </c>
-      <c r="H53" t="s">
-        <v>632</v>
+      <c r="H53" t="n">
+        <v>126372</v>
       </c>
       <c r="I53" t="n">
         <v>1.29</v>
       </c>
-      <c r="J53" t="s">
-        <v>633</v>
+      <c r="J53" t="n">
+        <v>114135</v>
       </c>
       <c r="K53" t="n">
         <v>1.16</v>
       </c>
-      <c r="L53" t="s">
-        <v>634</v>
+      <c r="L53" t="n">
+        <v>120475</v>
       </c>
       <c r="M53" t="n">
         <v>1.22</v>
       </c>
-      <c r="N53" t="s">
-        <v>635</v>
+      <c r="N53" t="n">
+        <v>108389</v>
       </c>
       <c r="O53" t="n">
         <v>1.19</v>
       </c>
-      <c r="P53" t="s">
-        <v>636</v>
+      <c r="P53" t="n">
+        <v>79372</v>
       </c>
       <c r="Q53" t="n">
         <v>0.85</v>
       </c>
-      <c r="R53" t="s">
-        <v>637</v>
+      <c r="R53" t="n">
+        <v>79274</v>
       </c>
       <c r="S53" t="n">
         <v>0.87</v>
       </c>
-      <c r="T53" t="s">
-        <v>638</v>
+      <c r="T53" t="n">
+        <v>78390</v>
       </c>
       <c r="U53" t="n">
         <v>0.87</v>
       </c>
-      <c r="V53" t="s">
-        <v>639</v>
+      <c r="V53" t="n">
+        <v>75770</v>
       </c>
       <c r="W53" t="n">
         <v>0.82</v>
       </c>
-      <c r="X53" t="s">
-        <v>640</v>
+      <c r="X53" t="n">
+        <v>75525</v>
       </c>
       <c r="Y53" t="n">
         <v>0.87</v>
       </c>
-      <c r="Z53" t="s">
-        <v>641</v>
+      <c r="Z53" t="n">
+        <v>75714</v>
       </c>
       <c r="AA53" t="n">
         <v>0.89</v>
       </c>
-      <c r="AB53" t="s">
-        <v>642</v>
+      <c r="AB53" t="n">
+        <v>75300</v>
       </c>
       <c r="AC53" t="n">
         <v>0.89</v>
       </c>
-      <c r="AD53" t="s">
-        <v>643</v>
+      <c r="AD53" t="n">
+        <v>73159</v>
       </c>
       <c r="AE53" t="n">
         <v>0.88</v>
       </c>
-      <c r="AF53" t="s">
-        <v>644</v>
+      <c r="AF53" t="n">
+        <v>68151</v>
       </c>
       <c r="AG53" t="n">
         <v>0.79</v>
@@ -7405,100 +5488,100 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B54" t="s">
-        <v>646</v>
+        <v>84</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1054492</v>
       </c>
       <c r="C54" t="n">
         <v>11.07</v>
       </c>
-      <c r="D54" t="s">
-        <v>647</v>
+      <c r="D54" t="n">
+        <v>1057052</v>
       </c>
       <c r="E54" t="n">
         <v>10.93</v>
       </c>
-      <c r="F54" t="s">
-        <v>648</v>
+      <c r="F54" t="n">
+        <v>891398</v>
       </c>
       <c r="G54" t="n">
         <v>9.51</v>
       </c>
-      <c r="H54" t="s">
-        <v>649</v>
+      <c r="H54" t="n">
+        <v>899719</v>
       </c>
       <c r="I54" t="n">
         <v>9.19</v>
       </c>
-      <c r="J54" t="s">
-        <v>650</v>
+      <c r="J54" t="n">
+        <v>678269</v>
       </c>
       <c r="K54" t="n">
         <v>6.92</v>
       </c>
-      <c r="L54" t="s">
-        <v>651</v>
+      <c r="L54" t="n">
+        <v>666025</v>
       </c>
       <c r="M54" t="n">
         <v>6.76</v>
       </c>
-      <c r="N54" t="s">
-        <v>50</v>
+      <c r="N54" t="n">
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
-      <c r="P54" t="s">
-        <v>50</v>
+      <c r="P54" t="n">
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="s">
-        <v>652</v>
+      <c r="R54" t="n">
+        <v>929437</v>
       </c>
       <c r="S54" t="n">
         <v>10.25</v>
       </c>
-      <c r="T54" t="s">
-        <v>653</v>
+      <c r="T54" t="n">
+        <v>912088</v>
       </c>
       <c r="U54" t="n">
         <v>10.09</v>
       </c>
-      <c r="V54" t="s">
-        <v>654</v>
+      <c r="V54" t="n">
+        <v>987783</v>
       </c>
       <c r="W54" t="n">
         <v>10.67</v>
       </c>
-      <c r="X54" t="s">
-        <v>655</v>
+      <c r="X54" t="n">
+        <v>973066</v>
       </c>
       <c r="Y54" t="n">
         <v>11.27</v>
       </c>
-      <c r="Z54" t="s">
-        <v>656</v>
+      <c r="Z54" t="n">
+        <v>867377</v>
       </c>
       <c r="AA54" t="n">
         <v>10.2</v>
       </c>
-      <c r="AB54" t="s">
-        <v>657</v>
+      <c r="AB54" t="n">
+        <v>867460</v>
       </c>
       <c r="AC54" t="n">
         <v>10.27</v>
       </c>
-      <c r="AD54" t="s">
-        <v>658</v>
+      <c r="AD54" t="n">
+        <v>752134</v>
       </c>
       <c r="AE54" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="AF54" t="s">
-        <v>659</v>
+      <c r="AF54" t="n">
+        <v>768675</v>
       </c>
       <c r="AG54" t="n">
         <v>8.890000000000001</v>
@@ -7506,100 +5589,100 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B55" t="s">
-        <v>661</v>
+        <v>85</v>
+      </c>
+      <c r="B55" t="n">
+        <v>910097</v>
       </c>
       <c r="C55" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="D55" t="s">
-        <v>662</v>
+      <c r="D55" t="n">
+        <v>925785</v>
       </c>
       <c r="E55" t="n">
         <v>9.57</v>
       </c>
-      <c r="F55" t="s">
-        <v>663</v>
+      <c r="F55" t="n">
+        <v>910198</v>
       </c>
       <c r="G55" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="H55" t="s">
-        <v>664</v>
+      <c r="H55" t="n">
+        <v>979810</v>
       </c>
       <c r="I55" t="n">
         <v>10.01</v>
       </c>
-      <c r="J55" t="s">
-        <v>665</v>
+      <c r="J55" t="n">
+        <v>997614</v>
       </c>
       <c r="K55" t="n">
         <v>10.18</v>
       </c>
-      <c r="L55" t="s">
-        <v>666</v>
+      <c r="L55" t="n">
+        <v>1015728</v>
       </c>
       <c r="M55" t="n">
         <v>10.31</v>
       </c>
-      <c r="N55" t="s">
-        <v>667</v>
+      <c r="N55" t="n">
+        <v>1027378</v>
       </c>
       <c r="O55" t="n">
         <v>11.29</v>
       </c>
-      <c r="P55" t="s">
-        <v>668</v>
+      <c r="P55" t="n">
+        <v>1063810</v>
       </c>
       <c r="Q55" t="n">
         <v>11.46</v>
       </c>
-      <c r="R55" t="s">
-        <v>669</v>
+      <c r="R55" t="n">
+        <v>1046275</v>
       </c>
       <c r="S55" t="n">
         <v>11.54</v>
       </c>
-      <c r="T55" t="s">
-        <v>670</v>
+      <c r="T55" t="n">
+        <v>1017393</v>
       </c>
       <c r="U55" t="n">
         <v>11.26</v>
       </c>
-      <c r="V55" t="s">
-        <v>671</v>
+      <c r="V55" t="n">
+        <v>1004905</v>
       </c>
       <c r="W55" t="n">
         <v>10.86</v>
       </c>
-      <c r="X55" t="s">
-        <v>672</v>
+      <c r="X55" t="n">
+        <v>966835</v>
       </c>
       <c r="Y55" t="n">
         <v>11.19</v>
       </c>
-      <c r="Z55" t="s">
-        <v>673</v>
+      <c r="Z55" t="n">
+        <v>941862</v>
       </c>
       <c r="AA55" t="n">
         <v>11.08</v>
       </c>
-      <c r="AB55" t="s">
-        <v>674</v>
+      <c r="AB55" t="n">
+        <v>934097</v>
       </c>
       <c r="AC55" t="n">
         <v>11.06</v>
       </c>
-      <c r="AD55" t="s">
-        <v>675</v>
+      <c r="AD55" t="n">
+        <v>911786</v>
       </c>
       <c r="AE55" t="n">
         <v>10.97</v>
       </c>
-      <c r="AF55" t="s">
-        <v>676</v>
+      <c r="AF55" t="n">
+        <v>921855</v>
       </c>
       <c r="AG55" t="n">
         <v>10.67</v>
@@ -7607,100 +5690,100 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B56" t="s">
-        <v>678</v>
+        <v>86</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1425412</v>
       </c>
       <c r="C56" t="n">
         <v>14.96</v>
       </c>
-      <c r="D56" t="s">
-        <v>679</v>
+      <c r="D56" t="n">
+        <v>1459595</v>
       </c>
       <c r="E56" t="n">
         <v>15.09</v>
       </c>
-      <c r="F56" t="s">
-        <v>680</v>
+      <c r="F56" t="n">
+        <v>1270148</v>
       </c>
       <c r="G56" t="n">
         <v>13.56</v>
       </c>
-      <c r="H56" t="s">
-        <v>681</v>
+      <c r="H56" t="n">
+        <v>1363834</v>
       </c>
       <c r="I56" t="n">
         <v>13.93</v>
       </c>
-      <c r="J56" t="s">
-        <v>682</v>
+      <c r="J56" t="n">
+        <v>1135515</v>
       </c>
       <c r="K56" t="n">
         <v>11.59</v>
       </c>
-      <c r="L56" t="s">
-        <v>683</v>
+      <c r="L56" t="n">
+        <v>1106674</v>
       </c>
       <c r="M56" t="n">
         <v>11.23</v>
       </c>
-      <c r="N56" t="s">
-        <v>684</v>
+      <c r="N56" t="n">
+        <v>405994</v>
       </c>
       <c r="O56" t="n">
         <v>4.46</v>
       </c>
-      <c r="P56" t="s">
-        <v>685</v>
+      <c r="P56" t="n">
+        <v>411048</v>
       </c>
       <c r="Q56" t="n">
         <v>4.43</v>
       </c>
-      <c r="R56" t="s">
-        <v>686</v>
+      <c r="R56" t="n">
+        <v>1297674</v>
       </c>
       <c r="S56" t="n">
         <v>14.32</v>
       </c>
-      <c r="T56" t="s">
-        <v>687</v>
+      <c r="T56" t="n">
+        <v>1250795</v>
       </c>
       <c r="U56" t="n">
         <v>13.84</v>
       </c>
-      <c r="V56" t="s">
-        <v>688</v>
+      <c r="V56" t="n">
+        <v>1300423</v>
       </c>
       <c r="W56" t="n">
         <v>14.05</v>
       </c>
-      <c r="X56" t="s">
-        <v>689</v>
+      <c r="X56" t="n">
+        <v>1301474</v>
       </c>
       <c r="Y56" t="n">
         <v>15.07</v>
       </c>
-      <c r="Z56" t="s">
-        <v>690</v>
+      <c r="Z56" t="n">
+        <v>1178998</v>
       </c>
       <c r="AA56" t="n">
         <v>13.87</v>
       </c>
-      <c r="AB56" t="s">
-        <v>691</v>
+      <c r="AB56" t="n">
+        <v>1182249</v>
       </c>
       <c r="AC56" t="n">
         <v>14</v>
       </c>
-      <c r="AD56" t="s">
-        <v>692</v>
+      <c r="AD56" t="n">
+        <v>1058187</v>
       </c>
       <c r="AE56" t="n">
         <v>12.74</v>
       </c>
-      <c r="AF56" t="s">
-        <v>693</v>
+      <c r="AF56" t="n">
+        <v>1075485</v>
       </c>
       <c r="AG56" t="n">
         <v>12.44</v>
@@ -7708,100 +5791,100 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B57" t="s">
-        <v>695</v>
+        <v>87</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6604285</v>
       </c>
       <c r="C57" t="n">
         <v>69.31</v>
       </c>
-      <c r="D57" t="s">
-        <v>696</v>
+      <c r="D57" t="n">
+        <v>6632320</v>
       </c>
       <c r="E57" t="n">
         <v>68.56</v>
       </c>
-      <c r="F57" t="s">
-        <v>697</v>
+      <c r="F57" t="n">
+        <v>6580732</v>
       </c>
       <c r="G57" t="n">
         <v>70.23999999999999</v>
       </c>
-      <c r="H57" t="s">
-        <v>698</v>
+      <c r="H57" t="n">
+        <v>6691292</v>
       </c>
       <c r="I57" t="n">
         <v>68.34999999999999</v>
       </c>
-      <c r="J57" t="s">
-        <v>699</v>
+      <c r="J57" t="n">
+        <v>6608625</v>
       </c>
       <c r="K57" t="n">
         <v>67.44</v>
       </c>
-      <c r="L57" t="s">
-        <v>700</v>
+      <c r="L57" t="n">
+        <v>6505475</v>
       </c>
       <c r="M57" t="n">
         <v>66.03</v>
       </c>
-      <c r="N57" t="s">
-        <v>701</v>
+      <c r="N57" t="n">
+        <v>6506580</v>
       </c>
       <c r="O57" t="n">
         <v>71.48</v>
       </c>
-      <c r="P57" t="s">
-        <v>702</v>
+      <c r="P57" t="n">
+        <v>6516323</v>
       </c>
       <c r="Q57" t="n">
         <v>70.19</v>
       </c>
-      <c r="R57" t="s">
-        <v>703</v>
+      <c r="R57" t="n">
+        <v>6443209</v>
       </c>
       <c r="S57" t="n">
         <v>71.08</v>
       </c>
-      <c r="T57" t="s">
-        <v>704</v>
+      <c r="T57" t="n">
+        <v>6328208</v>
       </c>
       <c r="U57" t="n">
         <v>70.04000000000001</v>
       </c>
-      <c r="V57" t="s">
-        <v>705</v>
+      <c r="V57" t="n">
+        <v>6450945</v>
       </c>
       <c r="W57" t="n">
         <v>69.70999999999999</v>
       </c>
-      <c r="X57" t="s">
-        <v>706</v>
+      <c r="X57" t="n">
+        <v>6250845</v>
       </c>
       <c r="Y57" t="n">
         <v>72.38</v>
       </c>
-      <c r="Z57" t="s">
-        <v>707</v>
+      <c r="Z57" t="n">
+        <v>6184521</v>
       </c>
       <c r="AA57" t="n">
         <v>72.73999999999999</v>
       </c>
-      <c r="AB57" t="s">
-        <v>708</v>
+      <c r="AB57" t="n">
+        <v>6056171</v>
       </c>
       <c r="AC57" t="n">
         <v>71.73</v>
       </c>
-      <c r="AD57" t="s">
-        <v>709</v>
+      <c r="AD57" t="n">
+        <v>5958548</v>
       </c>
       <c r="AE57" t="n">
         <v>71.70999999999999</v>
       </c>
-      <c r="AF57" t="s">
-        <v>710</v>
+      <c r="AF57" t="n">
+        <v>5858992</v>
       </c>
       <c r="AG57" t="n">
         <v>67.78</v>
@@ -7809,100 +5892,100 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B58" t="s">
-        <v>712</v>
+        <v>88</v>
+      </c>
+      <c r="B58" t="n">
+        <v>182094</v>
       </c>
       <c r="C58" t="n">
         <v>1.91</v>
       </c>
-      <c r="D58" t="s">
-        <v>713</v>
+      <c r="D58" t="n">
+        <v>152742</v>
       </c>
       <c r="E58" t="n">
         <v>1.58</v>
       </c>
-      <c r="F58" t="s">
-        <v>714</v>
+      <c r="F58" t="n">
+        <v>176916</v>
       </c>
       <c r="G58" t="n">
         <v>1.89</v>
       </c>
-      <c r="H58" t="s">
-        <v>715</v>
+      <c r="H58" t="n">
+        <v>123393</v>
       </c>
       <c r="I58" t="n">
         <v>1.26</v>
       </c>
-      <c r="J58" t="s">
-        <v>716</v>
+      <c r="J58" t="n">
+        <v>110519</v>
       </c>
       <c r="K58" t="n">
         <v>1.13</v>
       </c>
-      <c r="L58" t="s">
-        <v>717</v>
+      <c r="L58" t="n">
+        <v>56897</v>
       </c>
       <c r="M58" t="n">
         <v>0.58</v>
       </c>
-      <c r="N58" t="s">
-        <v>718</v>
+      <c r="N58" t="n">
+        <v>70141</v>
       </c>
       <c r="O58" t="n">
         <v>0.77</v>
       </c>
-      <c r="P58" t="s">
-        <v>719</v>
+      <c r="P58" t="n">
+        <v>51867</v>
       </c>
       <c r="Q58" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="R58" t="s">
-        <v>720</v>
+      <c r="R58" t="n">
+        <v>99521</v>
       </c>
       <c r="S58" t="n">
         <v>1.1</v>
       </c>
-      <c r="T58" t="s">
-        <v>721</v>
+      <c r="T58" t="n">
+        <v>72697</v>
       </c>
       <c r="U58" t="n">
         <v>0.8</v>
       </c>
-      <c r="V58" t="s">
-        <v>722</v>
+      <c r="V58" t="n">
+        <v>81215</v>
       </c>
       <c r="W58" t="n">
         <v>0.88</v>
       </c>
-      <c r="X58" t="s">
-        <v>723</v>
+      <c r="X58" t="n">
+        <v>59041</v>
       </c>
       <c r="Y58" t="n">
         <v>0.68</v>
       </c>
-      <c r="Z58" t="s">
-        <v>724</v>
+      <c r="Z58" t="n">
+        <v>104317</v>
       </c>
       <c r="AA58" t="n">
         <v>1.23</v>
       </c>
-      <c r="AB58" t="s">
-        <v>725</v>
+      <c r="AB58" t="n">
+        <v>48919</v>
       </c>
       <c r="AC58" t="n">
         <v>0.58</v>
       </c>
-      <c r="AD58" t="s">
-        <v>726</v>
+      <c r="AD58" t="n">
+        <v>49632</v>
       </c>
       <c r="AE58" t="n">
         <v>0.6</v>
       </c>
-      <c r="AF58" t="s">
-        <v>727</v>
+      <c r="AF58" t="n">
+        <v>31588</v>
       </c>
       <c r="AG58" t="n">
         <v>0.37</v>
@@ -7910,70 +5993,70 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B59" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
       </c>
       <c r="C59" t="s"/>
-      <c r="D59" t="s">
-        <v>50</v>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
       <c r="E59" t="s"/>
-      <c r="F59" t="s">
-        <v>50</v>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
       <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>50</v>
+      <c r="H59" t="n">
+        <v>0</v>
       </c>
       <c r="I59" t="s"/>
-      <c r="J59" t="s">
-        <v>50</v>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
       <c r="K59" t="s"/>
-      <c r="L59" t="s">
-        <v>50</v>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
       <c r="M59" t="s"/>
-      <c r="N59" t="s">
-        <v>50</v>
+      <c r="N59" t="n">
+        <v>0</v>
       </c>
       <c r="O59" t="s"/>
-      <c r="P59" t="s">
-        <v>50</v>
+      <c r="P59" t="n">
+        <v>0</v>
       </c>
       <c r="Q59" t="s"/>
-      <c r="R59" t="s">
-        <v>50</v>
+      <c r="R59" t="n">
+        <v>0</v>
       </c>
       <c r="S59" t="s"/>
-      <c r="T59" t="s">
-        <v>50</v>
+      <c r="T59" t="n">
+        <v>0</v>
       </c>
       <c r="U59" t="s"/>
-      <c r="V59" t="s">
-        <v>50</v>
+      <c r="V59" t="n">
+        <v>0</v>
       </c>
       <c r="W59" t="s"/>
-      <c r="X59" t="s">
-        <v>50</v>
+      <c r="X59" t="n">
+        <v>0</v>
       </c>
       <c r="Y59" t="s"/>
-      <c r="Z59" t="s">
-        <v>50</v>
+      <c r="Z59" t="n">
+        <v>0</v>
       </c>
       <c r="AA59" t="s"/>
-      <c r="AB59" t="s">
-        <v>50</v>
+      <c r="AB59" t="n">
+        <v>0</v>
       </c>
       <c r="AC59" t="s"/>
-      <c r="AD59" t="s">
-        <v>50</v>
+      <c r="AD59" t="n">
+        <v>0</v>
       </c>
       <c r="AE59" t="s"/>
-      <c r="AF59" t="s">
-        <v>50</v>
+      <c r="AF59" t="n">
+        <v>0</v>
       </c>
       <c r="AG59" t="s"/>
     </row>
